--- a/data/final_prefill_all.xlsx
+++ b/data/final_prefill_all.xlsx
@@ -659,19 +659,19 @@
         <v>36</v>
       </c>
       <c r="N2" t="n">
-        <v>0.291299034</v>
+        <v>0.063463851</v>
       </c>
       <c r="O2" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>0.006672222</v>
+        <v>0.006553977</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R2" t="n">
-        <v>2.626499608</v>
+        <v>2.492916328</v>
       </c>
       <c r="S2" t="n">
         <v>1.542254452</v>
@@ -680,13 +680,13 @@
         <v>0.383525</v>
       </c>
       <c r="U2" t="n">
-        <v>0.006660664</v>
+        <v>0.003226573</v>
       </c>
       <c r="V2" t="n">
-        <v>4.47395064</v>
+        <v>4.108979841</v>
       </c>
       <c r="W2" t="n">
-        <v>0.006884554</v>
+        <v>0.008000242750000001</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -695,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.016595294</v>
+        <v>0.01505663</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>0.058205834</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.47395064</v>
+        <v>4.108979841</v>
       </c>
       <c r="AC2" t="n">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="AD2" t="n">
-        <v>14649</v>
+        <v>15950</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>18</v>
       </c>
       <c r="N3" t="n">
-        <v>0.291299034</v>
+        <v>0.063463851</v>
       </c>
       <c r="O3" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>0.006672222</v>
+        <v>0.006553977</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R3" t="n">
-        <v>2.626499608</v>
+        <v>2.492916328</v>
       </c>
       <c r="S3" t="n">
         <v>0.7664585739999999</v>
@@ -795,13 +795,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U3" t="n">
-        <v>0.006660664</v>
+        <v>0.003226573</v>
       </c>
       <c r="V3" t="n">
-        <v>3.698154762</v>
+        <v>3.333183963</v>
       </c>
       <c r="W3" t="n">
-        <v>0.005861354</v>
+        <v>0.00685692275</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.016595294</v>
+        <v>0.01505663</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.13774105</v>
+        <v>0.188619564</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.698154762</v>
+        <v>3.333183963</v>
       </c>
       <c r="AC3" t="n">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="AD3" t="n">
-        <v>17722</v>
+        <v>19662</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -889,34 +889,34 @@
         <v>9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.291299034</v>
+        <v>0.063463851</v>
       </c>
       <c r="O4" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>0.006672222</v>
+        <v>0.006553977</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R4" t="n">
-        <v>2.626499608</v>
+        <v>2.492916328</v>
       </c>
       <c r="S4" t="n">
-        <v>0.876125728</v>
+        <v>0.79449937</v>
       </c>
       <c r="T4" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U4" t="n">
-        <v>0.006660664</v>
+        <v>0.003226573</v>
       </c>
       <c r="V4" t="n">
-        <v>3.807821916</v>
+        <v>3.361224759</v>
       </c>
       <c r="W4" t="n">
-        <v>0.005343755</v>
+        <v>0.00627326175</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -925,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.016595294</v>
+        <v>0.01505663</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.206245636</v>
+        <v>0.253094368</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.807821916</v>
+        <v>3.361224759</v>
       </c>
       <c r="AC4" t="n">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="AD4" t="n">
-        <v>17211</v>
+        <v>19498</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -1004,19 +1004,19 @@
         <v>36</v>
       </c>
       <c r="N5" t="n">
-        <v>0.404893173</v>
+        <v>0.063487824</v>
       </c>
       <c r="O5" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>0.006826665</v>
+        <v>0.006556392</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R5" t="n">
-        <v>2.800975672</v>
+        <v>2.49564256</v>
       </c>
       <c r="S5" t="n">
         <v>1.542254452</v>
@@ -1025,13 +1025,13 @@
         <v>0.383525</v>
       </c>
       <c r="U5" t="n">
-        <v>0.006715502</v>
+        <v>0.003172593</v>
       </c>
       <c r="V5" t="n">
-        <v>4.762230124</v>
+        <v>4.111678481</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0066125</v>
+        <v>0.0069359375</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.762230124</v>
+        <v>4.111678481</v>
       </c>
       <c r="AC5" t="n">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="AD5" t="n">
-        <v>27524</v>
+        <v>31878</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -1119,19 +1119,19 @@
         <v>18</v>
       </c>
       <c r="N6" t="n">
-        <v>0.404893173</v>
+        <v>0.063487824</v>
       </c>
       <c r="O6" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>0.006826665</v>
+        <v>0.006556392</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R6" t="n">
-        <v>2.800975672</v>
+        <v>2.49564256</v>
       </c>
       <c r="S6" t="n">
         <v>0.7664585739999999</v>
@@ -1140,13 +1140,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U6" t="n">
-        <v>0.006715502</v>
+        <v>0.003172593</v>
       </c>
       <c r="V6" t="n">
-        <v>3.986434246</v>
+        <v>3.335882603</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0055893</v>
+        <v>0.0057926175</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.13774105</v>
+        <v>0.13041373</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.986434246</v>
+        <v>3.335882603</v>
       </c>
       <c r="AC6" t="n">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="AD6" t="n">
-        <v>32880</v>
+        <v>39292</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -1234,34 +1234,34 @@
         <v>9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.404893173</v>
+        <v>0.063487824</v>
       </c>
       <c r="O7" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>0.006826665</v>
+        <v>0.006556392</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R7" t="n">
-        <v>2.800975672</v>
+        <v>2.49564256</v>
       </c>
       <c r="S7" t="n">
-        <v>0.876125728</v>
+        <v>0.79449937</v>
       </c>
       <c r="T7" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U7" t="n">
-        <v>0.006715502</v>
+        <v>0.003172593</v>
       </c>
       <c r="V7" t="n">
-        <v>4.0961014</v>
+        <v>3.363923399</v>
       </c>
       <c r="W7" t="n">
-        <v>0.005071701</v>
+        <v>0.0052089565</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1273,16 +1273,16 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.206245636</v>
+        <v>0.194888534</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.0961014</v>
+        <v>3.363923399</v>
       </c>
       <c r="AC7" t="n">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="AD7" t="n">
-        <v>32000</v>
+        <v>38965</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -1349,19 +1349,19 @@
         <v>36</v>
       </c>
       <c r="N8" t="n">
-        <v>0.191371091</v>
+        <v>0.065060892</v>
       </c>
       <c r="O8" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>0.006595002</v>
+        <v>0.006553506</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R8" t="n">
-        <v>2.539261576</v>
+        <v>2.491552864</v>
       </c>
       <c r="S8" t="n">
         <v>1.542254452</v>
@@ -1370,13 +1370,13 @@
         <v>0.383525</v>
       </c>
       <c r="U8" t="n">
-        <v>0.006715502</v>
+        <v>0.003337104</v>
       </c>
       <c r="V8" t="n">
-        <v>4.286762283</v>
+        <v>4.109323478</v>
       </c>
       <c r="W8" t="n">
-        <v>0.007330026</v>
+        <v>0.008820715375</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.043769086</v>
+        <v>0.040585862</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.08689535399999999</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.286762283</v>
+        <v>4.109323478</v>
       </c>
       <c r="AC8" t="n">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="AD8" t="n">
-        <v>7644</v>
+        <v>7975</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1464,19 +1464,19 @@
         <v>18</v>
       </c>
       <c r="N9" t="n">
-        <v>0.191371091</v>
+        <v>0.065060892</v>
       </c>
       <c r="O9" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>0.006595002</v>
+        <v>0.006553506</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R9" t="n">
-        <v>2.539261576</v>
+        <v>2.491552864</v>
       </c>
       <c r="S9" t="n">
         <v>0.7664585739999999</v>
@@ -1485,13 +1485,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006715502</v>
+        <v>0.003337104</v>
       </c>
       <c r="V9" t="n">
-        <v>3.510966405</v>
+        <v>3.3335276</v>
       </c>
       <c r="W9" t="n">
-        <v>0.006306826</v>
+        <v>0.007677395375</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1500,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.043769086</v>
+        <v>0.040585862</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.13774105</v>
+        <v>0.217309084</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.510966405</v>
+        <v>3.3335276</v>
       </c>
       <c r="AC9" t="n">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="AD9" t="n">
-        <v>9334</v>
+        <v>9830</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -1579,34 +1579,34 @@
         <v>9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.191371091</v>
+        <v>0.065060892</v>
       </c>
       <c r="O10" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>0.006595002</v>
+        <v>0.006553506</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R10" t="n">
-        <v>2.539261576</v>
+        <v>2.491552864</v>
       </c>
       <c r="S10" t="n">
-        <v>0.876125728</v>
+        <v>0.79449937</v>
       </c>
       <c r="T10" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006715502</v>
+        <v>0.003337104</v>
       </c>
       <c r="V10" t="n">
-        <v>3.620633559</v>
+        <v>3.361568396</v>
       </c>
       <c r="W10" t="n">
-        <v>0.005789227</v>
+        <v>0.007093734375</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.043769086</v>
+        <v>0.040585862</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.206245636</v>
+        <v>0.281783888</v>
       </c>
       <c r="AB10" t="n">
-        <v>3.620633559</v>
+        <v>3.361568396</v>
       </c>
       <c r="AC10" t="n">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="AD10" t="n">
-        <v>9051</v>
+        <v>9748</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -1694,19 +1694,19 @@
         <v>36</v>
       </c>
       <c r="N11" t="n">
-        <v>0.037045239</v>
+        <v>0.008046571000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0008340449999999999</v>
+        <v>0.0008195639999999999</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R11" t="n">
-        <v>0.328312712</v>
+        <v>0.311956016</v>
       </c>
       <c r="S11" t="n">
         <v>0.192782024</v>
@@ -1715,34 +1715,34 @@
         <v>0.383525</v>
       </c>
       <c r="U11" t="n">
-        <v>0.005118369</v>
+        <v>0.000403554</v>
       </c>
       <c r="V11" t="n">
-        <v>0.564162975</v>
+        <v>0.514078315</v>
       </c>
       <c r="W11" t="n">
-        <v>0.00667801</v>
+        <v>0.00699150875</v>
       </c>
       <c r="X11" t="n">
-        <v>0.05211901701323252</v>
+        <v>0.1666596597353497</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.00399611</v>
+        <v>0.003805546</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>0.007924143999999999</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.587951501</v>
+        <v>0.581614849</v>
       </c>
       <c r="AC11" t="n">
-        <v>1742</v>
+        <v>1761</v>
       </c>
       <c r="AD11" t="n">
-        <v>13934</v>
+        <v>14085</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1809,19 +1809,19 @@
         <v>18</v>
       </c>
       <c r="N12" t="n">
-        <v>0.037045239</v>
+        <v>0.008046571000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0008340449999999999</v>
+        <v>0.0008195639999999999</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R12" t="n">
-        <v>0.328312712</v>
+        <v>0.311956016</v>
       </c>
       <c r="S12" t="n">
         <v>0.09580759</v>
@@ -1830,13 +1830,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U12" t="n">
-        <v>0.005118369</v>
+        <v>0.000403554</v>
       </c>
       <c r="V12" t="n">
-        <v>0.467188541</v>
+        <v>0.417103881</v>
       </c>
       <c r="W12" t="n">
-        <v>0.003689518</v>
+        <v>0.00399850075</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1845,19 +1845,19 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.00399611</v>
+        <v>0.003805546</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.017858238</v>
+        <v>0.025506906</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.467188541</v>
+        <v>0.417103881</v>
       </c>
       <c r="AC12" t="n">
-        <v>2192</v>
+        <v>2456</v>
       </c>
       <c r="AD12" t="n">
-        <v>17535</v>
+        <v>19641</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -1924,34 +1924,34 @@
         <v>9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.037045239</v>
+        <v>0.008046571000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0008340449999999999</v>
+        <v>0.0008195639999999999</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R13" t="n">
-        <v>0.328312712</v>
+        <v>0.311956016</v>
       </c>
       <c r="S13" t="n">
-        <v>0.108804462</v>
+        <v>0.099312704</v>
       </c>
       <c r="T13" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U13" t="n">
-        <v>0.005118369</v>
+        <v>0.000403554</v>
       </c>
       <c r="V13" t="n">
-        <v>0.480185413</v>
+        <v>0.420608995</v>
       </c>
       <c r="W13" t="n">
-        <v>0.002189271</v>
+        <v>0.00248999575</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1960,19 +1960,19 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.00399611</v>
+        <v>0.003805546</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.026421296</v>
+        <v>0.033566226</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.480185413</v>
+        <v>0.420608995</v>
       </c>
       <c r="AC13" t="n">
-        <v>2133</v>
+        <v>2435</v>
       </c>
       <c r="AD13" t="n">
-        <v>17061</v>
+        <v>19477</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -2039,19 +2039,19 @@
         <v>36</v>
       </c>
       <c r="N14" t="n">
-        <v>0.042842862</v>
+        <v>0.008046571000000001</v>
       </c>
       <c r="O14" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P14" t="n">
-        <v>0.000901764</v>
+        <v>0.0008195639999999999</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R14" t="n">
-        <v>0.350122568</v>
+        <v>0.311956016</v>
       </c>
       <c r="S14" t="n">
         <v>0.192782024</v>
@@ -2060,16 +2060,16 @@
         <v>0.383525</v>
       </c>
       <c r="U14" t="n">
-        <v>0.005177042</v>
+        <v>0.000396577</v>
       </c>
       <c r="V14" t="n">
-        <v>0.591896846</v>
+        <v>0.514071338</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0066125</v>
+        <v>0.0069359375</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.1666596597353497</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.591896846</v>
+        <v>0.5779894840000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>1731</v>
+        <v>1772</v>
       </c>
       <c r="AD14" t="n">
-        <v>27681</v>
+        <v>28347</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -2154,19 +2154,19 @@
         <v>18</v>
       </c>
       <c r="N15" t="n">
-        <v>0.042842862</v>
+        <v>0.008046571000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P15" t="n">
-        <v>0.000901764</v>
+        <v>0.0008195639999999999</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R15" t="n">
-        <v>0.350122568</v>
+        <v>0.311956016</v>
       </c>
       <c r="S15" t="n">
         <v>0.09580759</v>
@@ -2175,13 +2175,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U15" t="n">
-        <v>0.005177042</v>
+        <v>0.000396577</v>
       </c>
       <c r="V15" t="n">
-        <v>0.494922412</v>
+        <v>0.417096904</v>
       </c>
       <c r="W15" t="n">
-        <v>0.003624008</v>
+        <v>0.0039429295</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -2193,16 +2193,16 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.017858238</v>
+        <v>0.017582762</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.494922412</v>
+        <v>0.417096904</v>
       </c>
       <c r="AC15" t="n">
-        <v>2070</v>
+        <v>2456</v>
       </c>
       <c r="AD15" t="n">
-        <v>33105</v>
+        <v>39282</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2269,34 +2269,34 @@
         <v>9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.042842862</v>
+        <v>0.008046571000000001</v>
       </c>
       <c r="O16" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P16" t="n">
-        <v>0.000901764</v>
+        <v>0.0008195639999999999</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R16" t="n">
-        <v>0.350122568</v>
+        <v>0.311956016</v>
       </c>
       <c r="S16" t="n">
-        <v>0.108804462</v>
+        <v>0.099312704</v>
       </c>
       <c r="T16" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U16" t="n">
-        <v>0.005177042</v>
+        <v>0.000396577</v>
       </c>
       <c r="V16" t="n">
-        <v>0.507919284</v>
+        <v>0.420602018</v>
       </c>
       <c r="W16" t="n">
-        <v>0.002123761</v>
+        <v>0.0024344245</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -2308,16 +2308,16 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.026421296</v>
+        <v>0.025642082</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.507919284</v>
+        <v>0.420602018</v>
       </c>
       <c r="AC16" t="n">
-        <v>2017</v>
+        <v>2435</v>
       </c>
       <c r="AD16" t="n">
-        <v>32258</v>
+        <v>38954</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         <v>36</v>
       </c>
       <c r="N17" t="n">
-        <v>0.027304454</v>
+        <v>0.008228961</v>
       </c>
       <c r="O17" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P17" t="n">
-        <v>0.000824388</v>
+        <v>0.0008195639999999999</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R17" t="n">
-        <v>0.31740848</v>
+        <v>0.311956016</v>
       </c>
       <c r="S17" t="n">
         <v>0.192782024</v>
@@ -2405,34 +2405,34 @@
         <v>0.383525</v>
       </c>
       <c r="U17" t="n">
-        <v>0.005125224</v>
+        <v>0.000417508</v>
       </c>
       <c r="V17" t="n">
-        <v>0.543515156</v>
+        <v>0.514274659</v>
       </c>
       <c r="W17" t="n">
-        <v>0.006733692</v>
+        <v>0.007034515375</v>
       </c>
       <c r="X17" t="n">
-        <v>0.104699584120983</v>
+        <v>0.1662074858223063</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.007392712</v>
+        <v>0.0070028</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>0.011520216</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.5906992</v>
+        <v>0.584677785</v>
       </c>
       <c r="AC17" t="n">
-        <v>1734</v>
+        <v>1752</v>
       </c>
       <c r="AD17" t="n">
-        <v>6935</v>
+        <v>7006</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2499,19 +2499,19 @@
         <v>18</v>
       </c>
       <c r="N18" t="n">
-        <v>0.027304454</v>
+        <v>0.008228961</v>
       </c>
       <c r="O18" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P18" t="n">
-        <v>0.000824388</v>
+        <v>0.0008195639999999999</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R18" t="n">
-        <v>0.31740848</v>
+        <v>0.311956016</v>
       </c>
       <c r="S18" t="n">
         <v>0.09580759</v>
@@ -2520,13 +2520,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U18" t="n">
-        <v>0.005125224</v>
+        <v>0.000417508</v>
       </c>
       <c r="V18" t="n">
-        <v>0.446540722</v>
+        <v>0.417300225</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0037452</v>
+        <v>0.004041507375</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2535,19 +2535,19 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.007392712</v>
+        <v>0.0070028</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.017858238</v>
+        <v>0.029102978</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.446540722</v>
+        <v>0.417300225</v>
       </c>
       <c r="AC18" t="n">
-        <v>2294</v>
+        <v>2454</v>
       </c>
       <c r="AD18" t="n">
-        <v>9173</v>
+        <v>9816</v>
       </c>
       <c r="AE18" t="n">
         <v>0</v>
@@ -2614,34 +2614,34 @@
         <v>9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.027304454</v>
+        <v>0.008228961</v>
       </c>
       <c r="O19" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P19" t="n">
-        <v>0.000824388</v>
+        <v>0.0008195639999999999</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R19" t="n">
-        <v>0.31740848</v>
+        <v>0.311956016</v>
       </c>
       <c r="S19" t="n">
-        <v>0.108804462</v>
+        <v>0.099312704</v>
       </c>
       <c r="T19" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U19" t="n">
-        <v>0.005125224</v>
+        <v>0.000417508</v>
       </c>
       <c r="V19" t="n">
-        <v>0.459537594</v>
+        <v>0.420805339</v>
       </c>
       <c r="W19" t="n">
-        <v>0.002244953</v>
+        <v>0.002533002375</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2650,19 +2650,19 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.007392712</v>
+        <v>0.0070028</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.026421296</v>
+        <v>0.037162298</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.459537594</v>
+        <v>0.420805339</v>
       </c>
       <c r="AC19" t="n">
-        <v>2229</v>
+        <v>2434</v>
       </c>
       <c r="AD19" t="n">
-        <v>8914</v>
+        <v>9734</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
@@ -2729,19 +2729,19 @@
         <v>36</v>
       </c>
       <c r="N20" t="n">
-        <v>0.586113376</v>
+        <v>0.126902997</v>
       </c>
       <c r="O20" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P20" t="n">
-        <v>0.013344438</v>
+        <v>0.013105542</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R20" t="n">
-        <v>5.25299852</v>
+        <v>4.983105728</v>
       </c>
       <c r="S20" t="n">
         <v>3.084508846</v>
@@ -2750,13 +2750,13 @@
         <v>0.383525</v>
       </c>
       <c r="U20" t="n">
-        <v>0.008423287</v>
+        <v>0.006451308</v>
       </c>
       <c r="V20" t="n">
-        <v>8.946517782999999</v>
+        <v>8.215203737</v>
       </c>
       <c r="W20" t="n">
-        <v>0.007120606</v>
+        <v>0.00915199675</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2765,19 +2765,19 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.030994466</v>
+        <v>0.027902986</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>0.115616472</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.946517782999999</v>
+        <v>8.215203737</v>
       </c>
       <c r="AC20" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="AD20" t="n">
-        <v>14651</v>
+        <v>15955</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
@@ -2844,19 +2844,19 @@
         <v>18</v>
       </c>
       <c r="N21" t="n">
-        <v>0.586113376</v>
+        <v>0.126902997</v>
       </c>
       <c r="O21" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P21" t="n">
-        <v>0.013344438</v>
+        <v>0.013105542</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R21" t="n">
-        <v>5.25299852</v>
+        <v>4.983105728</v>
       </c>
       <c r="S21" t="n">
         <v>1.53291709</v>
@@ -2865,13 +2865,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U21" t="n">
-        <v>0.008423287</v>
+        <v>0.006451308</v>
       </c>
       <c r="V21" t="n">
-        <v>7.394926027</v>
+        <v>6.663611981</v>
       </c>
       <c r="W21" t="n">
-        <v>0.008343456000000001</v>
+        <v>0.01012260675</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2880,19 +2880,19 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.030994466</v>
+        <v>0.027902986</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.2747501</v>
+        <v>0.374979932</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.394926027</v>
+        <v>6.663611981</v>
       </c>
       <c r="AC21" t="n">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="AD21" t="n">
-        <v>17725</v>
+        <v>19670</v>
       </c>
       <c r="AE21" t="n">
         <v>0</v>
@@ -2959,34 +2959,34 @@
         <v>9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.586113376</v>
+        <v>0.126902997</v>
       </c>
       <c r="O22" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P22" t="n">
-        <v>0.013344438</v>
+        <v>0.013105542</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R22" t="n">
-        <v>5.25299852</v>
+        <v>4.983105728</v>
       </c>
       <c r="S22" t="n">
-        <v>1.753064616</v>
+        <v>1.58899874</v>
       </c>
       <c r="T22" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U22" t="n">
-        <v>0.008423287</v>
+        <v>0.006451308</v>
       </c>
       <c r="V22" t="n">
-        <v>7.615073553</v>
+        <v>6.719693631</v>
       </c>
       <c r="W22" t="n">
-        <v>0.008948881000000001</v>
+        <v>0.01059590975</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.030994466</v>
+        <v>0.027902986</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.41175915</v>
+        <v>0.50392954</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.615073553</v>
+        <v>6.719693631</v>
       </c>
       <c r="AC22" t="n">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="AD22" t="n">
-        <v>17213</v>
+        <v>19506</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
@@ -3074,19 +3074,19 @@
         <v>36</v>
       </c>
       <c r="N23" t="n">
-        <v>0.824502474</v>
+        <v>0.126927031</v>
       </c>
       <c r="O23" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P23" t="n">
-        <v>0.013653321</v>
+        <v>0.013107954</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R23" t="n">
-        <v>5.601950648</v>
+        <v>4.98583196</v>
       </c>
       <c r="S23" t="n">
         <v>3.084508846</v>
@@ -3095,13 +3095,13 @@
         <v>0.383525</v>
       </c>
       <c r="U23" t="n">
-        <v>0.008532962</v>
+        <v>0.006341634</v>
       </c>
       <c r="V23" t="n">
-        <v>9.534277567</v>
+        <v>8.217846741000001</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0066125</v>
+        <v>0.0069359375</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -3116,13 +3116,13 @@
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.534277567</v>
+        <v>8.217846741000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD23" t="n">
-        <v>27495</v>
+        <v>31900</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>18</v>
       </c>
       <c r="N24" t="n">
-        <v>0.824502474</v>
+        <v>0.126927031</v>
       </c>
       <c r="O24" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P24" t="n">
-        <v>0.013653321</v>
+        <v>0.013107954</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R24" t="n">
-        <v>5.601950648</v>
+        <v>4.98583196</v>
       </c>
       <c r="S24" t="n">
         <v>1.53291709</v>
@@ -3210,13 +3210,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U24" t="n">
-        <v>0.008532962</v>
+        <v>0.006341634</v>
       </c>
       <c r="V24" t="n">
-        <v>7.982685811</v>
+        <v>6.666254985</v>
       </c>
       <c r="W24" t="n">
-        <v>0.00783535</v>
+        <v>0.0079065475</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -3228,16 +3228,16 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.2747501</v>
+        <v>0.25936346</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.982685811</v>
+        <v>6.666254985</v>
       </c>
       <c r="AC24" t="n">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="AD24" t="n">
-        <v>32840</v>
+        <v>39325</v>
       </c>
       <c r="AE24" t="n">
         <v>0</v>
@@ -3304,34 +3304,34 @@
         <v>9</v>
       </c>
       <c r="N25" t="n">
-        <v>0.824502474</v>
+        <v>0.126927031</v>
       </c>
       <c r="O25" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P25" t="n">
-        <v>0.013653321</v>
+        <v>0.013107954</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R25" t="n">
-        <v>5.601950648</v>
+        <v>4.98583196</v>
       </c>
       <c r="S25" t="n">
-        <v>1.753064616</v>
+        <v>1.58899874</v>
       </c>
       <c r="T25" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U25" t="n">
-        <v>0.008532962</v>
+        <v>0.006341634</v>
       </c>
       <c r="V25" t="n">
-        <v>8.202833337</v>
+        <v>6.722336635</v>
       </c>
       <c r="W25" t="n">
-        <v>0.008440774999999999</v>
+        <v>0.008379850499999999</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3343,16 +3343,16 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.41175915</v>
+        <v>0.388313068</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.202833337</v>
+        <v>6.722336635</v>
       </c>
       <c r="AC25" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="AD25" t="n">
-        <v>31958</v>
+        <v>38996</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
@@ -3419,19 +3419,19 @@
         <v>36</v>
       </c>
       <c r="N26" t="n">
-        <v>0.397947469</v>
+        <v>0.13044423</v>
       </c>
       <c r="O26" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P26" t="n">
-        <v>0.013190004</v>
+        <v>0.013105068</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R26" t="n">
-        <v>5.078522456</v>
+        <v>4.98174296</v>
       </c>
       <c r="S26" t="n">
         <v>3.084508846</v>
@@ -3440,13 +3440,13 @@
         <v>0.383525</v>
       </c>
       <c r="U26" t="n">
-        <v>0.008532962</v>
+        <v>0.006673227</v>
       </c>
       <c r="V26" t="n">
-        <v>8.583831053000001</v>
+        <v>8.217603647000001</v>
       </c>
       <c r="W26" t="n">
-        <v>0.008011549999999999</v>
+        <v>0.010861445375</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -3455,19 +3455,19 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.08534205</v>
+        <v>0.07895437399999999</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>0.173011372</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.583831053000001</v>
+        <v>8.217603647000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AD26" t="n">
-        <v>7635</v>
+        <v>7976</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
@@ -3534,19 +3534,19 @@
         <v>18</v>
       </c>
       <c r="N27" t="n">
-        <v>0.397947469</v>
+        <v>0.13044423</v>
       </c>
       <c r="O27" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P27" t="n">
-        <v>0.013190004</v>
+        <v>0.013105068</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R27" t="n">
-        <v>5.078522456</v>
+        <v>4.98174296</v>
       </c>
       <c r="S27" t="n">
         <v>1.53291709</v>
@@ -3555,13 +3555,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U27" t="n">
-        <v>0.008532962</v>
+        <v>0.006673227</v>
       </c>
       <c r="V27" t="n">
-        <v>7.032239297</v>
+        <v>6.666011891</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0092344</v>
+        <v>0.011832055375</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -3570,19 +3570,19 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.08534205</v>
+        <v>0.07895437399999999</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.2747501</v>
+        <v>0.432374832</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.032239297</v>
+        <v>6.666011891</v>
       </c>
       <c r="AC27" t="n">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AD27" t="n">
-        <v>9320</v>
+        <v>9832</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
@@ -3649,34 +3649,34 @@
         <v>9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.397947469</v>
+        <v>0.13044423</v>
       </c>
       <c r="O28" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P28" t="n">
-        <v>0.013190004</v>
+        <v>0.013105068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R28" t="n">
-        <v>5.078522456</v>
+        <v>4.98174296</v>
       </c>
       <c r="S28" t="n">
-        <v>1.753064616</v>
+        <v>1.58899874</v>
       </c>
       <c r="T28" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U28" t="n">
-        <v>0.008532962</v>
+        <v>0.006673227</v>
       </c>
       <c r="V28" t="n">
-        <v>7.252386823</v>
+        <v>6.722093541</v>
       </c>
       <c r="W28" t="n">
-        <v>0.009839825</v>
+        <v>0.012305358375</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -3685,19 +3685,19 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.08534205</v>
+        <v>0.07895437399999999</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.41175915</v>
+        <v>0.56132444</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.252386823</v>
+        <v>6.722093541</v>
       </c>
       <c r="AC28" t="n">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="AD28" t="n">
-        <v>9037</v>
+        <v>9750</v>
       </c>
       <c r="AE28" t="n">
         <v>0</v>
@@ -3764,19 +3764,19 @@
         <v>36</v>
       </c>
       <c r="N29" t="n">
-        <v>0.067439892</v>
+        <v>0.016040316</v>
       </c>
       <c r="O29" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P29" t="n">
-        <v>0.001668069</v>
+        <v>0.00163911</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R29" t="n">
-        <v>0.656625192</v>
+        <v>0.623911104</v>
       </c>
       <c r="S29" t="n">
         <v>0.385563816</v>
@@ -3785,13 +3785,13 @@
         <v>0.383525</v>
       </c>
       <c r="U29" t="n">
-        <v>0.005338697</v>
+        <v>0.000807105</v>
       </c>
       <c r="V29" t="n">
-        <v>1.116776832</v>
+        <v>1.028102617</v>
       </c>
       <c r="W29" t="n">
-        <v>0.006707516</v>
+        <v>0.00713579475</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -3800,19 +3800,19 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.005795976</v>
+        <v>0.005414848</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>0.015116288</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.116776832</v>
+        <v>1.028102617</v>
       </c>
       <c r="AC29" t="n">
-        <v>917</v>
+        <v>997</v>
       </c>
       <c r="AD29" t="n">
-        <v>14671</v>
+        <v>15937</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -3879,19 +3879,19 @@
         <v>18</v>
       </c>
       <c r="N30" t="n">
-        <v>0.067439892</v>
+        <v>0.016040316</v>
       </c>
       <c r="O30" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P30" t="n">
-        <v>0.001668069</v>
+        <v>0.00163911</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R30" t="n">
-        <v>0.656625192</v>
+        <v>0.623911104</v>
       </c>
       <c r="S30" t="n">
         <v>0.191614832</v>
@@ -3900,13 +3900,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U30" t="n">
-        <v>0.005338697</v>
+        <v>0.000807105</v>
       </c>
       <c r="V30" t="n">
-        <v>0.922827848</v>
+        <v>0.834153633</v>
       </c>
       <c r="W30" t="n">
-        <v>0.00399978</v>
+        <v>0.00440702875</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3915,19 +3915,19 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.005795976</v>
+        <v>0.005414848</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.034984354</v>
+        <v>0.048817812</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.922827848</v>
+        <v>0.834153633</v>
       </c>
       <c r="AC30" t="n">
-        <v>1110</v>
+        <v>1228</v>
       </c>
       <c r="AD30" t="n">
-        <v>17755</v>
+        <v>19642</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
@@ -3994,34 +3994,34 @@
         <v>9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.067439892</v>
+        <v>0.016040316</v>
       </c>
       <c r="O31" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P31" t="n">
-        <v>0.001668069</v>
+        <v>0.00163911</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R31" t="n">
-        <v>0.656625192</v>
+        <v>0.623911104</v>
       </c>
       <c r="S31" t="n">
-        <v>0.218421678</v>
+        <v>0.198625002</v>
       </c>
       <c r="T31" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U31" t="n">
-        <v>0.005338697</v>
+        <v>0.000807105</v>
       </c>
       <c r="V31" t="n">
-        <v>0.949634694</v>
+        <v>0.841163803</v>
       </c>
       <c r="W31" t="n">
-        <v>0.002639911</v>
+        <v>0.00303064375</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.005795976</v>
+        <v>0.005414848</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.05211047</v>
+        <v>0.06493645200000001</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.949634694</v>
+        <v>0.841163803</v>
       </c>
       <c r="AC31" t="n">
-        <v>1079</v>
+        <v>1218</v>
       </c>
       <c r="AD31" t="n">
-        <v>17253</v>
+        <v>19478</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
@@ -4109,19 +4109,19 @@
         <v>36</v>
       </c>
       <c r="N32" t="n">
-        <v>0.090216804</v>
+        <v>0.016040316</v>
       </c>
       <c r="O32" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P32" t="n">
-        <v>0.001706682</v>
+        <v>0.00163911</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R32" t="n">
-        <v>0.700244208</v>
+        <v>0.623911104</v>
       </c>
       <c r="S32" t="n">
         <v>0.385563816</v>
@@ -4130,13 +4130,13 @@
         <v>0.383525</v>
       </c>
       <c r="U32" t="n">
-        <v>0.005352407</v>
+        <v>0.000793151</v>
       </c>
       <c r="V32" t="n">
-        <v>1.183225083</v>
+        <v>1.028088663</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0066125</v>
+        <v>0.0069359375</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -4151,13 +4151,13 @@
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.183225083</v>
+        <v>1.028088663</v>
       </c>
       <c r="AC32" t="n">
-        <v>866</v>
+        <v>997</v>
       </c>
       <c r="AD32" t="n">
-        <v>27694</v>
+        <v>31873</v>
       </c>
       <c r="AE32" t="n">
         <v>0</v>
@@ -4224,19 +4224,19 @@
         <v>18</v>
       </c>
       <c r="N33" t="n">
-        <v>0.090216804</v>
+        <v>0.016040316</v>
       </c>
       <c r="O33" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P33" t="n">
-        <v>0.001706682</v>
+        <v>0.00163911</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R33" t="n">
-        <v>0.700244208</v>
+        <v>0.623911104</v>
       </c>
       <c r="S33" t="n">
         <v>0.191614832</v>
@@ -4245,13 +4245,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U33" t="n">
-        <v>0.005352407</v>
+        <v>0.000793151</v>
       </c>
       <c r="V33" t="n">
-        <v>0.989276099</v>
+        <v>0.834139679</v>
       </c>
       <c r="W33" t="n">
-        <v>0.003904764</v>
+        <v>0.0042071715</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -4263,16 +4263,16 @@
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.034984354</v>
+        <v>0.033701524</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.989276099</v>
+        <v>0.834139679</v>
       </c>
       <c r="AC33" t="n">
-        <v>1036</v>
+        <v>1228</v>
       </c>
       <c r="AD33" t="n">
-        <v>33124</v>
+        <v>39284</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
@@ -4339,34 +4339,34 @@
         <v>9</v>
       </c>
       <c r="N34" t="n">
-        <v>0.090216804</v>
+        <v>0.016040316</v>
       </c>
       <c r="O34" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P34" t="n">
-        <v>0.001706682</v>
+        <v>0.00163911</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R34" t="n">
-        <v>0.700244208</v>
+        <v>0.623911104</v>
       </c>
       <c r="S34" t="n">
-        <v>0.218421678</v>
+        <v>0.198625002</v>
       </c>
       <c r="T34" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U34" t="n">
-        <v>0.005352407</v>
+        <v>0.000793151</v>
       </c>
       <c r="V34" t="n">
-        <v>1.016082945</v>
+        <v>0.841149849</v>
       </c>
       <c r="W34" t="n">
-        <v>0.002544895</v>
+        <v>0.0028307865</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -4378,16 +4378,16 @@
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.05211047</v>
+        <v>0.049820164</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.016082945</v>
+        <v>0.841149849</v>
       </c>
       <c r="AC34" t="n">
-        <v>1008</v>
+        <v>1218</v>
       </c>
       <c r="AD34" t="n">
-        <v>32250</v>
+        <v>38957</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
@@ -4454,19 +4454,19 @@
         <v>36</v>
       </c>
       <c r="N35" t="n">
-        <v>0.050127848</v>
+        <v>0.016423091</v>
       </c>
       <c r="O35" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P35" t="n">
-        <v>0.001648761</v>
+        <v>0.00163911</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R35" t="n">
-        <v>0.634816032</v>
+        <v>0.623911104</v>
       </c>
       <c r="S35" t="n">
         <v>0.385563816</v>
@@ -4475,13 +4475,13 @@
         <v>0.383525</v>
       </c>
       <c r="U35" t="n">
-        <v>0.005352407</v>
+        <v>0.000835014</v>
       </c>
       <c r="V35" t="n">
-        <v>1.07765003</v>
+        <v>1.028513301</v>
       </c>
       <c r="W35" t="n">
-        <v>0.006818882</v>
+        <v>0.007290169375</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -4490,19 +4490,19 @@
         <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.012589302</v>
+        <v>0.011809478</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>0.022308432</v>
       </c>
       <c r="AB35" t="n">
-        <v>1.07765003</v>
+        <v>1.028513301</v>
       </c>
       <c r="AC35" t="n">
-        <v>951</v>
+        <v>996</v>
       </c>
       <c r="AD35" t="n">
-        <v>7602</v>
+        <v>7965</v>
       </c>
       <c r="AE35" t="n">
         <v>0</v>
@@ -4569,19 +4569,19 @@
         <v>18</v>
       </c>
       <c r="N36" t="n">
-        <v>0.050127848</v>
+        <v>0.016423091</v>
       </c>
       <c r="O36" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P36" t="n">
-        <v>0.001648761</v>
+        <v>0.00163911</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R36" t="n">
-        <v>0.634816032</v>
+        <v>0.623911104</v>
       </c>
       <c r="S36" t="n">
         <v>0.191614832</v>
@@ -4590,13 +4590,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U36" t="n">
-        <v>0.005352407</v>
+        <v>0.000835014</v>
       </c>
       <c r="V36" t="n">
-        <v>0.883701046</v>
+        <v>0.834564317</v>
       </c>
       <c r="W36" t="n">
-        <v>0.004111146</v>
+        <v>0.004561403375</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -4605,19 +4605,19 @@
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.012589302</v>
+        <v>0.011809478</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.034984354</v>
+        <v>0.056009956</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.883701046</v>
+        <v>0.834564317</v>
       </c>
       <c r="AC36" t="n">
-        <v>1159</v>
+        <v>1227</v>
       </c>
       <c r="AD36" t="n">
-        <v>9271</v>
+        <v>9816</v>
       </c>
       <c r="AE36" t="n">
         <v>0</v>
@@ -4684,34 +4684,34 @@
         <v>9</v>
       </c>
       <c r="N37" t="n">
-        <v>0.050127848</v>
+        <v>0.016423091</v>
       </c>
       <c r="O37" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P37" t="n">
-        <v>0.001648761</v>
+        <v>0.00163911</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R37" t="n">
-        <v>0.634816032</v>
+        <v>0.623911104</v>
       </c>
       <c r="S37" t="n">
-        <v>0.218421678</v>
+        <v>0.198625002</v>
       </c>
       <c r="T37" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U37" t="n">
-        <v>0.005352407</v>
+        <v>0.000835014</v>
       </c>
       <c r="V37" t="n">
-        <v>0.910507892</v>
+        <v>0.841574487</v>
       </c>
       <c r="W37" t="n">
-        <v>0.002751277</v>
+        <v>0.003185018375</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.012589302</v>
+        <v>0.011809478</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.05211047</v>
+        <v>0.072128596</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.910507892</v>
+        <v>0.841574487</v>
       </c>
       <c r="AC37" t="n">
-        <v>1125</v>
+        <v>1217</v>
       </c>
       <c r="AD37" t="n">
-        <v>8998</v>
+        <v>9735</v>
       </c>
       <c r="AE37" t="n">
         <v>0</v>
@@ -4799,19 +4799,19 @@
         <v>36</v>
       </c>
       <c r="N38" t="n">
-        <v>0.880413549</v>
+        <v>0.195311935</v>
       </c>
       <c r="O38" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P38" t="n">
-        <v>0.020016648</v>
+        <v>0.019657092</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R38" t="n">
-        <v>7.879497432</v>
+        <v>7.473295128</v>
       </c>
       <c r="S38" t="n">
         <v>4.626763124</v>
@@ -4820,13 +4820,13 @@
         <v>0.383525</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01508395</v>
+        <v>0.010947652</v>
       </c>
       <c r="V38" t="n">
-        <v>13.423468679</v>
+        <v>12.327668907</v>
       </c>
       <c r="W38" t="n">
-        <v>0.00735666</v>
+        <v>0.01030375075</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -4835,19 +4835,19 @@
         <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.04539376</v>
+        <v>0.040749342</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>0.17302711</v>
       </c>
       <c r="AB38" t="n">
-        <v>13.423468679</v>
+        <v>12.327668907</v>
       </c>
       <c r="AC38" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AD38" t="n">
-        <v>14647</v>
+        <v>15949</v>
       </c>
       <c r="AE38" t="n">
         <v>0</v>
@@ -4914,19 +4914,19 @@
         <v>18</v>
       </c>
       <c r="N39" t="n">
-        <v>0.880413549</v>
+        <v>0.195311935</v>
       </c>
       <c r="O39" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P39" t="n">
-        <v>0.020016648</v>
+        <v>0.019657092</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R39" t="n">
-        <v>7.879497432</v>
+        <v>7.473295128</v>
       </c>
       <c r="S39" t="n">
         <v>2.299375664</v>
@@ -4935,13 +4935,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01508395</v>
+        <v>0.010947652</v>
       </c>
       <c r="V39" t="n">
-        <v>11.096081219</v>
+        <v>10.000281447</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01082556</v>
+        <v>0.01338828875</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -4950,19 +4950,19 @@
         <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.04539376</v>
+        <v>0.040749342</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.41175915</v>
+        <v>0.561340178</v>
       </c>
       <c r="AB39" t="n">
-        <v>11.096081219</v>
+        <v>10.000281447</v>
       </c>
       <c r="AC39" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AD39" t="n">
-        <v>17719</v>
+        <v>19661</v>
       </c>
       <c r="AE39" t="n">
         <v>0</v>
@@ -5029,34 +5029,34 @@
         <v>9</v>
       </c>
       <c r="N40" t="n">
-        <v>0.880413549</v>
+        <v>0.195311935</v>
       </c>
       <c r="O40" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P40" t="n">
-        <v>0.020016648</v>
+        <v>0.019657092</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R40" t="n">
-        <v>7.879497432</v>
+        <v>7.473295128</v>
       </c>
       <c r="S40" t="n">
-        <v>2.630003562</v>
+        <v>2.38349811</v>
       </c>
       <c r="T40" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01508395</v>
+        <v>0.010947652</v>
       </c>
       <c r="V40" t="n">
-        <v>11.426709117</v>
+        <v>10.084403893</v>
       </c>
       <c r="W40" t="n">
-        <v>0.012554011</v>
+        <v>0.01491855775</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -5065,19 +5065,19 @@
         <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.04539376</v>
+        <v>0.040749342</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.617272786</v>
+        <v>0.7547647119999999</v>
       </c>
       <c r="AB40" t="n">
-        <v>11.426709117</v>
+        <v>10.084403893</v>
       </c>
       <c r="AC40" t="n">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="AD40" t="n">
-        <v>17207</v>
+        <v>19497</v>
       </c>
       <c r="AE40" t="n">
         <v>0</v>
@@ -5144,19 +5144,19 @@
         <v>36</v>
       </c>
       <c r="N41" t="n">
-        <v>1.24355271</v>
+        <v>0.195305042</v>
       </c>
       <c r="O41" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P41" t="n">
-        <v>0.020479965</v>
+        <v>0.019659507</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R41" t="n">
-        <v>8.402926320000001</v>
+        <v>7.47602136</v>
       </c>
       <c r="S41" t="n">
         <v>4.626763124</v>
@@ -5165,13 +5165,13 @@
         <v>0.383525</v>
       </c>
       <c r="U41" t="n">
-        <v>0.015248462</v>
+        <v>0.010782283</v>
       </c>
       <c r="V41" t="n">
-        <v>14.310664557</v>
+        <v>12.330225292</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0066125</v>
+        <v>0.0069359375</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -5186,13 +5186,13 @@
         <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>14.310664557</v>
+        <v>12.330225292</v>
       </c>
       <c r="AC41" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="AD41" t="n">
-        <v>27478</v>
+        <v>31891</v>
       </c>
       <c r="AE41" t="n">
         <v>0</v>
@@ -5259,19 +5259,19 @@
         <v>18</v>
       </c>
       <c r="N42" t="n">
-        <v>1.24355271</v>
+        <v>0.195305042</v>
       </c>
       <c r="O42" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P42" t="n">
-        <v>0.020479965</v>
+        <v>0.019659507</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R42" t="n">
-        <v>8.402926320000001</v>
+        <v>7.47602136</v>
       </c>
       <c r="S42" t="n">
         <v>2.299375664</v>
@@ -5280,13 +5280,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U42" t="n">
-        <v>0.015248462</v>
+        <v>0.010782283</v>
       </c>
       <c r="V42" t="n">
-        <v>11.983277097</v>
+        <v>10.002837832</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0100814</v>
+        <v>0.0100204755</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -5298,16 +5298,16 @@
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.41175915</v>
+        <v>0.388313068</v>
       </c>
       <c r="AB42" t="n">
-        <v>11.983277097</v>
+        <v>10.002837832</v>
       </c>
       <c r="AC42" t="n">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="AD42" t="n">
-        <v>32814</v>
+        <v>39311</v>
       </c>
       <c r="AE42" t="n">
         <v>0</v>
@@ -5374,34 +5374,34 @@
         <v>9</v>
       </c>
       <c r="N43" t="n">
-        <v>1.24355271</v>
+        <v>0.195305042</v>
       </c>
       <c r="O43" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P43" t="n">
-        <v>0.020479965</v>
+        <v>0.019659507</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R43" t="n">
-        <v>8.402926320000001</v>
+        <v>7.47602136</v>
       </c>
       <c r="S43" t="n">
-        <v>2.630003562</v>
+        <v>2.38349811</v>
       </c>
       <c r="T43" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U43" t="n">
-        <v>0.015248462</v>
+        <v>0.010782283</v>
       </c>
       <c r="V43" t="n">
-        <v>12.313904995</v>
+        <v>10.086960278</v>
       </c>
       <c r="W43" t="n">
-        <v>0.011809851</v>
+        <v>0.0115507445</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -5413,16 +5413,16 @@
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.617272786</v>
+        <v>0.581737602</v>
       </c>
       <c r="AB43" t="n">
-        <v>12.313904995</v>
+        <v>10.086960278</v>
       </c>
       <c r="AC43" t="n">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="AD43" t="n">
-        <v>31933</v>
+        <v>38983</v>
       </c>
       <c r="AE43" t="n">
         <v>0</v>
@@ -5489,19 +5489,19 @@
         <v>36</v>
       </c>
       <c r="N44" t="n">
-        <v>0.604187615</v>
+        <v>0.201066309</v>
       </c>
       <c r="O44" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P44" t="n">
-        <v>0.019784988</v>
+        <v>0.019657092</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R44" t="n">
-        <v>7.617783336</v>
+        <v>7.473295128</v>
       </c>
       <c r="S44" t="n">
         <v>4.626763124</v>
@@ -5510,13 +5510,13 @@
         <v>0.383525</v>
       </c>
       <c r="U44" t="n">
-        <v>0.015248462</v>
+        <v>0.011281938</v>
       </c>
       <c r="V44" t="n">
-        <v>12.885461501</v>
+        <v>12.333757567</v>
       </c>
       <c r="W44" t="n">
-        <v>0.008693072</v>
+        <v>0.012903295375</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -5525,19 +5525,19 @@
         <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.126914892</v>
+        <v>0.11734387</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>0.259174726</v>
       </c>
       <c r="AB44" t="n">
-        <v>12.885461501</v>
+        <v>12.333757567</v>
       </c>
       <c r="AC44" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AD44" t="n">
-        <v>7630</v>
+        <v>7971</v>
       </c>
       <c r="AE44" t="n">
         <v>0</v>
@@ -5604,19 +5604,19 @@
         <v>18</v>
       </c>
       <c r="N45" t="n">
-        <v>0.604187615</v>
+        <v>0.201066309</v>
       </c>
       <c r="O45" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P45" t="n">
-        <v>0.019784988</v>
+        <v>0.019657092</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R45" t="n">
-        <v>7.617783336</v>
+        <v>7.473295128</v>
       </c>
       <c r="S45" t="n">
         <v>2.299375664</v>
@@ -5625,13 +5625,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U45" t="n">
-        <v>0.015248462</v>
+        <v>0.011281938</v>
       </c>
       <c r="V45" t="n">
-        <v>10.558074041</v>
+        <v>10.006370107</v>
       </c>
       <c r="W45" t="n">
-        <v>0.012161972</v>
+        <v>0.015987833375</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5640,19 +5640,19 @@
         <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.126914892</v>
+        <v>0.11734387</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.41175915</v>
+        <v>0.647487794</v>
       </c>
       <c r="AB45" t="n">
-        <v>10.558074041</v>
+        <v>10.006370107</v>
       </c>
       <c r="AC45" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AD45" t="n">
-        <v>9311</v>
+        <v>9825</v>
       </c>
       <c r="AE45" t="n">
         <v>0</v>
@@ -5719,34 +5719,34 @@
         <v>9</v>
       </c>
       <c r="N46" t="n">
-        <v>0.604187615</v>
+        <v>0.201066309</v>
       </c>
       <c r="O46" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P46" t="n">
-        <v>0.019784988</v>
+        <v>0.019657092</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R46" t="n">
-        <v>7.617783336</v>
+        <v>7.473295128</v>
       </c>
       <c r="S46" t="n">
-        <v>2.630003562</v>
+        <v>2.38349811</v>
       </c>
       <c r="T46" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U46" t="n">
-        <v>0.015248462</v>
+        <v>0.011281938</v>
       </c>
       <c r="V46" t="n">
-        <v>10.888701939</v>
+        <v>10.090492553</v>
       </c>
       <c r="W46" t="n">
-        <v>0.013890423</v>
+        <v>0.017518102375</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5755,19 +5755,19 @@
         <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.126914892</v>
+        <v>0.11734387</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.617272786</v>
+        <v>0.840912328</v>
       </c>
       <c r="AB46" t="n">
-        <v>10.888701939</v>
+        <v>10.090492553</v>
       </c>
       <c r="AC46" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AD46" t="n">
-        <v>9029</v>
+        <v>9743</v>
       </c>
       <c r="AE46" t="n">
         <v>0</v>
@@ -5834,19 +5834,19 @@
         <v>36</v>
       </c>
       <c r="N47" t="n">
-        <v>1.187141862</v>
+        <v>0.254055301</v>
       </c>
       <c r="O47" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P47" t="n">
-        <v>0.026688864</v>
+        <v>0.026208654</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R47" t="n">
-        <v>10.50599704</v>
+        <v>9.963485223999999</v>
       </c>
       <c r="S47" t="n">
         <v>6.169017518</v>
@@ -5855,13 +5855,13 @@
         <v>0.383525</v>
       </c>
       <c r="U47" t="n">
-        <v>0.016846573</v>
+        <v>0.012900779</v>
       </c>
       <c r="V47" t="n">
-        <v>17.907950487</v>
+        <v>16.427926106</v>
       </c>
       <c r="W47" t="n">
-        <v>0.007592712</v>
+        <v>0.01145550475</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
@@ -5870,19 +5870,19 @@
         <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.059792932</v>
+        <v>0.053595698</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>0.230437748</v>
       </c>
       <c r="AB47" t="n">
-        <v>17.907950487</v>
+        <v>16.427926106</v>
       </c>
       <c r="AC47" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AD47" t="n">
-        <v>14639</v>
+        <v>15958</v>
       </c>
       <c r="AE47" t="n">
         <v>0</v>
@@ -5949,19 +5949,19 @@
         <v>18</v>
       </c>
       <c r="N48" t="n">
-        <v>1.187141862</v>
+        <v>0.254055301</v>
       </c>
       <c r="O48" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P48" t="n">
-        <v>0.026688864</v>
+        <v>0.026208654</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R48" t="n">
-        <v>10.50599704</v>
+        <v>9.963485223999999</v>
       </c>
       <c r="S48" t="n">
         <v>3.06583418</v>
@@ -5970,13 +5970,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U48" t="n">
-        <v>0.016846573</v>
+        <v>0.012900779</v>
       </c>
       <c r="V48" t="n">
-        <v>14.804767149</v>
+        <v>13.324742768</v>
       </c>
       <c r="W48" t="n">
-        <v>0.013307662</v>
+        <v>0.01665397275</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
@@ -5985,19 +5985,19 @@
         <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.059792932</v>
+        <v>0.053595698</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.5487682</v>
+        <v>0.747700546</v>
       </c>
       <c r="AB48" t="n">
-        <v>14.804767149</v>
+        <v>13.324742768</v>
       </c>
       <c r="AC48" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AD48" t="n">
-        <v>17707</v>
+        <v>19674</v>
       </c>
       <c r="AE48" t="n">
         <v>0</v>
@@ -6179,19 +6179,19 @@
         <v>36</v>
       </c>
       <c r="N50" t="n">
-        <v>1.662729338</v>
+        <v>0.253790805</v>
       </c>
       <c r="O50" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P50" t="n">
-        <v>0.027306621</v>
+        <v>0.026211069</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R50" t="n">
-        <v>11.203901296</v>
+        <v>9.966211456</v>
       </c>
       <c r="S50" t="n">
         <v>6.169017518</v>
@@ -6200,13 +6200,13 @@
         <v>0.383525</v>
       </c>
       <c r="U50" t="n">
-        <v>0.017065922</v>
+        <v>0.012679717</v>
       </c>
       <c r="V50" t="n">
-        <v>19.082279325</v>
+        <v>16.430169195</v>
       </c>
       <c r="W50" t="n">
-        <v>0.0066125</v>
+        <v>0.0069359375</v>
       </c>
       <c r="X50" t="n">
         <v>0</v>
@@ -6221,13 +6221,13 @@
         <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>19.082279325</v>
+        <v>16.430169195</v>
       </c>
       <c r="AC50" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="AD50" t="n">
-        <v>27476</v>
+        <v>31911</v>
       </c>
       <c r="AE50" t="n">
         <v>0</v>
@@ -6294,19 +6294,19 @@
         <v>18</v>
       </c>
       <c r="N51" t="n">
-        <v>1.662729338</v>
+        <v>0.253790805</v>
       </c>
       <c r="O51" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P51" t="n">
-        <v>0.027306621</v>
+        <v>0.026211069</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R51" t="n">
-        <v>11.203901296</v>
+        <v>9.966211456</v>
       </c>
       <c r="S51" t="n">
         <v>3.06583418</v>
@@ -6315,13 +6315,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U51" t="n">
-        <v>0.017065922</v>
+        <v>0.012679717</v>
       </c>
       <c r="V51" t="n">
-        <v>15.979095987</v>
+        <v>13.326985857</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01232745</v>
+        <v>0.0121344055</v>
       </c>
       <c r="X51" t="n">
         <v>0</v>
@@ -6333,16 +6333,16 @@
         <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.5487682</v>
+        <v>0.517262798</v>
       </c>
       <c r="AB51" t="n">
-        <v>15.979095987</v>
+        <v>13.326985857</v>
       </c>
       <c r="AC51" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="AD51" t="n">
-        <v>32811</v>
+        <v>39341</v>
       </c>
       <c r="AE51" t="n">
         <v>0</v>
@@ -6524,19 +6524,19 @@
         <v>36</v>
       </c>
       <c r="N53" t="n">
-        <v>0.81139394</v>
+        <v>0.26180651</v>
       </c>
       <c r="O53" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P53" t="n">
-        <v>0.02637999</v>
+        <v>0.026208654</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R53" t="n">
-        <v>10.157044216</v>
+        <v>9.963485223999999</v>
       </c>
       <c r="S53" t="n">
         <v>6.169017518</v>
@@ -6545,13 +6545,13 @@
         <v>0.383525</v>
       </c>
       <c r="U53" t="n">
-        <v>0.017065922</v>
+        <v>0.013346454</v>
       </c>
       <c r="V53" t="n">
-        <v>17.183160216</v>
+        <v>16.43612299</v>
       </c>
       <c r="W53" t="n">
-        <v>0.009374596000000001</v>
+        <v>0.014944023375</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
@@ -6560,19 +6560,19 @@
         <v>0</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.168487856</v>
+        <v>0.155712382</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>0.345290622</v>
       </c>
       <c r="AB53" t="n">
-        <v>17.183160216</v>
+        <v>16.43612299</v>
       </c>
       <c r="AC53" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AD53" t="n">
-        <v>7628</v>
+        <v>7975</v>
       </c>
       <c r="AE53" t="n">
         <v>0</v>
@@ -6639,19 +6639,19 @@
         <v>18</v>
       </c>
       <c r="N54" t="n">
-        <v>0.81139394</v>
+        <v>0.26180651</v>
       </c>
       <c r="O54" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P54" t="n">
-        <v>0.02637999</v>
+        <v>0.026208654</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R54" t="n">
-        <v>10.157044216</v>
+        <v>9.963485223999999</v>
       </c>
       <c r="S54" t="n">
         <v>3.06583418</v>
@@ -6660,13 +6660,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U54" t="n">
-        <v>0.017065922</v>
+        <v>0.013346454</v>
       </c>
       <c r="V54" t="n">
-        <v>14.079976878</v>
+        <v>13.332939652</v>
       </c>
       <c r="W54" t="n">
-        <v>0.015089546</v>
+        <v>0.020142491375</v>
       </c>
       <c r="X54" t="n">
         <v>0</v>
@@ -6675,19 +6675,19 @@
         <v>0</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.168487856</v>
+        <v>0.155712382</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.5487682</v>
+        <v>0.86255342</v>
       </c>
       <c r="AB54" t="n">
-        <v>14.079976878</v>
+        <v>13.332939652</v>
       </c>
       <c r="AC54" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD54" t="n">
-        <v>9310</v>
+        <v>9831</v>
       </c>
       <c r="AE54" t="n">
         <v>0</v>
@@ -6869,19 +6869,19 @@
         <v>36</v>
       </c>
       <c r="N56" t="n">
-        <v>0.138325003</v>
+        <v>0.032013105</v>
       </c>
       <c r="O56" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P56" t="n">
-        <v>0.00333612</v>
+        <v>0.003278202</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R56" t="n">
-        <v>1.313250152</v>
+        <v>1.24782128</v>
       </c>
       <c r="S56" t="n">
         <v>0.7711272260000001</v>
@@ -6890,13 +6890,13 @@
         <v>0.383525</v>
       </c>
       <c r="U56" t="n">
-        <v>0.005779353</v>
+        <v>0.001614207</v>
       </c>
       <c r="V56" t="n">
-        <v>2.232100186</v>
+        <v>2.056136352</v>
       </c>
       <c r="W56" t="n">
-        <v>0.00676653</v>
+        <v>0.00742436275</v>
       </c>
       <c r="X56" t="n">
         <v>0</v>
@@ -6905,19 +6905,19 @@
         <v>0</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.009395830000000001</v>
+        <v>0.00863333</v>
       </c>
       <c r="AA56" t="n">
-        <v>0</v>
+        <v>0.029500454</v>
       </c>
       <c r="AB56" t="n">
-        <v>2.232100186</v>
+        <v>2.056136352</v>
       </c>
       <c r="AC56" t="n">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="AD56" t="n">
-        <v>14681</v>
+        <v>15937</v>
       </c>
       <c r="AE56" t="n">
         <v>0</v>
@@ -6984,19 +6984,19 @@
         <v>18</v>
       </c>
       <c r="N57" t="n">
-        <v>0.138325003</v>
+        <v>0.032013105</v>
       </c>
       <c r="O57" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P57" t="n">
-        <v>0.00333612</v>
+        <v>0.003278202</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R57" t="n">
-        <v>1.313250152</v>
+        <v>1.24782128</v>
       </c>
       <c r="S57" t="n">
         <v>0.383229374</v>
@@ -7005,13 +7005,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U57" t="n">
-        <v>0.005779353</v>
+        <v>0.001614207</v>
       </c>
       <c r="V57" t="n">
-        <v>1.844202334</v>
+        <v>1.6682385</v>
       </c>
       <c r="W57" t="n">
-        <v>0.004620306</v>
+        <v>0.00522407875</v>
       </c>
       <c r="X57" t="n">
         <v>0</v>
@@ -7020,19 +7020,19 @@
         <v>0</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.009395830000000001</v>
+        <v>0.00863333</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.069236586</v>
+        <v>0.09543938</v>
       </c>
       <c r="AB57" t="n">
-        <v>1.844202334</v>
+        <v>1.6682385</v>
       </c>
       <c r="AC57" t="n">
-        <v>556</v>
+        <v>614</v>
       </c>
       <c r="AD57" t="n">
-        <v>17769</v>
+        <v>19643</v>
       </c>
       <c r="AE57" t="n">
         <v>0</v>
@@ -7099,34 +7099,34 @@
         <v>9</v>
       </c>
       <c r="N58" t="n">
-        <v>0.138325003</v>
+        <v>0.032013105</v>
       </c>
       <c r="O58" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P58" t="n">
-        <v>0.00333612</v>
+        <v>0.003278202</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R58" t="n">
-        <v>1.313250152</v>
+        <v>1.24782128</v>
       </c>
       <c r="S58" t="n">
-        <v>0.437656342</v>
+        <v>0.397249772</v>
       </c>
       <c r="T58" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U58" t="n">
-        <v>0.005779353</v>
+        <v>0.001614207</v>
       </c>
       <c r="V58" t="n">
-        <v>1.898629302</v>
+        <v>1.682258898</v>
       </c>
       <c r="W58" t="n">
-        <v>0.003541193</v>
+        <v>0.00411193575</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
@@ -7135,19 +7135,19 @@
         <v>0</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.009395830000000001</v>
+        <v>0.00863333</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.103488818</v>
+        <v>0.127676782</v>
       </c>
       <c r="AB58" t="n">
-        <v>1.898629302</v>
+        <v>1.682258898</v>
       </c>
       <c r="AC58" t="n">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="AD58" t="n">
-        <v>17259</v>
+        <v>19479</v>
       </c>
       <c r="AE58" t="n">
         <v>0</v>
@@ -7214,19 +7214,19 @@
         <v>36</v>
       </c>
       <c r="N59" t="n">
-        <v>0.195126129</v>
+        <v>0.032013105</v>
       </c>
       <c r="O59" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P59" t="n">
-        <v>0.003413343</v>
+        <v>0.003278202</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R59" t="n">
-        <v>1.400488184</v>
+        <v>1.24782128</v>
       </c>
       <c r="S59" t="n">
         <v>0.7711272260000001</v>
@@ -7235,13 +7235,13 @@
         <v>0.383525</v>
       </c>
       <c r="U59" t="n">
-        <v>0.005806772</v>
+        <v>0.001586299</v>
       </c>
       <c r="V59" t="n">
-        <v>2.376243986</v>
+        <v>2.056108444</v>
       </c>
       <c r="W59" t="n">
-        <v>0.0066125</v>
+        <v>0.0069359375</v>
       </c>
       <c r="X59" t="n">
         <v>0</v>
@@ -7256,13 +7256,13 @@
         <v>0</v>
       </c>
       <c r="AB59" t="n">
-        <v>2.376243986</v>
+        <v>2.056108444</v>
       </c>
       <c r="AC59" t="n">
-        <v>431</v>
+        <v>499</v>
       </c>
       <c r="AD59" t="n">
-        <v>27580</v>
+        <v>31874</v>
       </c>
       <c r="AE59" t="n">
         <v>0</v>
@@ -7329,19 +7329,19 @@
         <v>18</v>
       </c>
       <c r="N60" t="n">
-        <v>0.195126129</v>
+        <v>0.032013105</v>
       </c>
       <c r="O60" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P60" t="n">
-        <v>0.003413343</v>
+        <v>0.003278202</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R60" t="n">
-        <v>1.400488184</v>
+        <v>1.24782128</v>
       </c>
       <c r="S60" t="n">
         <v>0.383229374</v>
@@ -7350,13 +7350,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U60" t="n">
-        <v>0.005806772</v>
+        <v>0.001586299</v>
       </c>
       <c r="V60" t="n">
-        <v>1.988346134</v>
+        <v>1.668210592</v>
       </c>
       <c r="W60" t="n">
-        <v>0.004466276</v>
+        <v>0.0047356535</v>
       </c>
       <c r="X60" t="n">
         <v>0</v>
@@ -7368,16 +7368,16 @@
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.069236586</v>
+        <v>0.06593892599999999</v>
       </c>
       <c r="AB60" t="n">
-        <v>1.988346134</v>
+        <v>1.668210592</v>
       </c>
       <c r="AC60" t="n">
-        <v>516</v>
+        <v>614</v>
       </c>
       <c r="AD60" t="n">
-        <v>32961</v>
+        <v>39286</v>
       </c>
       <c r="AE60" t="n">
         <v>0</v>
@@ -7444,34 +7444,34 @@
         <v>9</v>
       </c>
       <c r="N61" t="n">
-        <v>0.195126129</v>
+        <v>0.032013105</v>
       </c>
       <c r="O61" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P61" t="n">
-        <v>0.003413343</v>
+        <v>0.003278202</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R61" t="n">
-        <v>1.400488184</v>
+        <v>1.24782128</v>
       </c>
       <c r="S61" t="n">
-        <v>0.437656342</v>
+        <v>0.397249772</v>
       </c>
       <c r="T61" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U61" t="n">
-        <v>0.005806772</v>
+        <v>0.001586299</v>
       </c>
       <c r="V61" t="n">
-        <v>2.042773102</v>
+        <v>1.68223099</v>
       </c>
       <c r="W61" t="n">
-        <v>0.003387163</v>
+        <v>0.0036235105</v>
       </c>
       <c r="X61" t="n">
         <v>0</v>
@@ -7483,16 +7483,16 @@
         <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.103488818</v>
+        <v>0.09817632799999999</v>
       </c>
       <c r="AB61" t="n">
-        <v>2.042773102</v>
+        <v>1.68223099</v>
       </c>
       <c r="AC61" t="n">
-        <v>502</v>
+        <v>609</v>
       </c>
       <c r="AD61" t="n">
-        <v>32082</v>
+        <v>38958</v>
       </c>
       <c r="AE61" t="n">
         <v>0</v>
@@ -7559,19 +7559,19 @@
         <v>36</v>
       </c>
       <c r="N62" t="n">
-        <v>0.093908097</v>
+        <v>0.032794149</v>
       </c>
       <c r="O62" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P62" t="n">
-        <v>0.00329751</v>
+        <v>0.003277731</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R62" t="n">
-        <v>1.269631136</v>
+        <v>1.246458512</v>
       </c>
       <c r="S62" t="n">
         <v>0.7711272260000001</v>
@@ -7580,13 +7580,13 @@
         <v>0.383525</v>
       </c>
       <c r="U62" t="n">
-        <v>0.005806772</v>
+        <v>0.001669045</v>
       </c>
       <c r="V62" t="n">
-        <v>2.144053073</v>
+        <v>2.055608995</v>
       </c>
       <c r="W62" t="n">
-        <v>0.006989264</v>
+        <v>0.007800349375</v>
       </c>
       <c r="X62" t="n">
         <v>0</v>
@@ -7595,19 +7595,19 @@
         <v>0</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.022982604</v>
+        <v>0.021401484</v>
       </c>
       <c r="AA62" t="n">
-        <v>0</v>
+        <v>0.043837406</v>
       </c>
       <c r="AB62" t="n">
-        <v>2.144053073</v>
+        <v>2.055608995</v>
       </c>
       <c r="AC62" t="n">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="AD62" t="n">
-        <v>7642</v>
+        <v>7971</v>
       </c>
       <c r="AE62" t="n">
         <v>0</v>
@@ -7674,19 +7674,19 @@
         <v>18</v>
       </c>
       <c r="N63" t="n">
-        <v>0.093908097</v>
+        <v>0.032794149</v>
       </c>
       <c r="O63" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P63" t="n">
-        <v>0.00329751</v>
+        <v>0.003277731</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R63" t="n">
-        <v>1.269631136</v>
+        <v>1.246458512</v>
       </c>
       <c r="S63" t="n">
         <v>0.383229374</v>
@@ -7695,13 +7695,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U63" t="n">
-        <v>0.005806772</v>
+        <v>0.001669045</v>
       </c>
       <c r="V63" t="n">
-        <v>1.756155221</v>
+        <v>1.667711143</v>
       </c>
       <c r="W63" t="n">
-        <v>0.00484304</v>
+        <v>0.005600065375</v>
       </c>
       <c r="X63" t="n">
         <v>0</v>
@@ -7710,19 +7710,19 @@
         <v>0</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.022982604</v>
+        <v>0.021401484</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.069236586</v>
+        <v>0.109776332</v>
       </c>
       <c r="AB63" t="n">
-        <v>1.756155221</v>
+        <v>1.667711143</v>
       </c>
       <c r="AC63" t="n">
-        <v>584</v>
+        <v>615</v>
       </c>
       <c r="AD63" t="n">
-        <v>9330</v>
+        <v>9825</v>
       </c>
       <c r="AE63" t="n">
         <v>0</v>
@@ -7789,34 +7789,34 @@
         <v>9</v>
       </c>
       <c r="N64" t="n">
-        <v>0.093908097</v>
+        <v>0.032794149</v>
       </c>
       <c r="O64" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P64" t="n">
-        <v>0.00329751</v>
+        <v>0.003277731</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>0.00686484375</v>
       </c>
       <c r="R64" t="n">
-        <v>1.269631136</v>
+        <v>1.246458512</v>
       </c>
       <c r="S64" t="n">
-        <v>0.437656342</v>
+        <v>0.397249772</v>
       </c>
       <c r="T64" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U64" t="n">
-        <v>0.005806772</v>
+        <v>0.001669045</v>
       </c>
       <c r="V64" t="n">
-        <v>1.810582189</v>
+        <v>1.681731541</v>
       </c>
       <c r="W64" t="n">
-        <v>0.003763927</v>
+        <v>0.004487922375</v>
       </c>
       <c r="X64" t="n">
         <v>0</v>
@@ -7825,19 +7825,19 @@
         <v>0</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.022982604</v>
+        <v>0.021401484</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.103488818</v>
+        <v>0.142013734</v>
       </c>
       <c r="AB64" t="n">
-        <v>1.810582189</v>
+        <v>1.681731541</v>
       </c>
       <c r="AC64" t="n">
-        <v>566</v>
+        <v>609</v>
       </c>
       <c r="AD64" t="n">
-        <v>9050</v>
+        <v>9743</v>
       </c>
       <c r="AE64" t="n">
         <v>0</v>
@@ -8364,19 +8364,19 @@
         <v>72</v>
       </c>
       <c r="N69" t="n">
-        <v>0.279659014</v>
+        <v>0.049387613</v>
       </c>
       <c r="O69" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P69" t="n">
-        <v>0.005591151</v>
+        <v>0.00545601</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R69" t="n">
-        <v>1.405166464</v>
+        <v>1.25249956</v>
       </c>
       <c r="S69" t="n">
         <v>1.57964218</v>
@@ -8385,13 +8385,13 @@
         <v>0.383525</v>
       </c>
       <c r="U69" t="n">
-        <v>0.005838107</v>
+        <v>0.002391163</v>
       </c>
       <c r="V69" t="n">
-        <v>3.276461576</v>
+        <v>2.889941186</v>
       </c>
       <c r="W69" t="n">
-        <v>0.0067744</v>
+        <v>0.00742436275</v>
       </c>
       <c r="X69" t="n">
         <v>0</v>
@@ -8400,19 +8400,19 @@
         <v>0</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.0098759</v>
+        <v>0.00863333</v>
       </c>
       <c r="AA69" t="n">
-        <v>0</v>
+        <v>0.029500454</v>
       </c>
       <c r="AB69" t="n">
-        <v>3.276461576</v>
+        <v>2.889941186</v>
       </c>
       <c r="AC69" t="n">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="AD69" t="n">
-        <v>20003</v>
+        <v>22678</v>
       </c>
       <c r="AE69" t="n">
         <v>0</v>
@@ -8479,19 +8479,19 @@
         <v>36</v>
       </c>
       <c r="N70" t="n">
-        <v>0.279659014</v>
+        <v>0.049387613</v>
       </c>
       <c r="O70" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P70" t="n">
-        <v>0.005591151</v>
+        <v>0.00545601</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R70" t="n">
-        <v>1.405166464</v>
+        <v>1.25249956</v>
       </c>
       <c r="S70" t="n">
         <v>1.542254452</v>
@@ -8500,13 +8500,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U70" t="n">
-        <v>0.005838107</v>
+        <v>0.002391163</v>
       </c>
       <c r="V70" t="n">
-        <v>3.239073848</v>
+        <v>2.852553458</v>
       </c>
       <c r="W70" t="n">
-        <v>0.007997249999999999</v>
+        <v>0.00839497275</v>
       </c>
       <c r="X70" t="n">
         <v>0</v>
@@ -8515,19 +8515,19 @@
         <v>0</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.0098759</v>
+        <v>0.00863333</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.2747501</v>
+        <v>0.288863914</v>
       </c>
       <c r="AB70" t="n">
-        <v>3.239073848</v>
+        <v>2.852553458</v>
       </c>
       <c r="AC70" t="n">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="AD70" t="n">
-        <v>20233</v>
+        <v>22975</v>
       </c>
       <c r="AE70" t="n">
         <v>0</v>
@@ -8824,19 +8824,19 @@
         <v>72</v>
       </c>
       <c r="N73" t="n">
-        <v>0.391589683</v>
+        <v>0.049387613</v>
       </c>
       <c r="O73" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P73" t="n">
-        <v>0.005591151</v>
+        <v>0.00545601</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R73" t="n">
-        <v>1.405166464</v>
+        <v>1.25249956</v>
       </c>
       <c r="S73" t="n">
         <v>1.57964218</v>
@@ -8845,13 +8845,13 @@
         <v>0.383525</v>
       </c>
       <c r="U73" t="n">
-        <v>0.005806772</v>
+        <v>0.002363255</v>
       </c>
       <c r="V73" t="n">
-        <v>3.38836091</v>
+        <v>2.889913278</v>
       </c>
       <c r="W73" t="n">
-        <v>0.0066125</v>
+        <v>0.0069359375</v>
       </c>
       <c r="X73" t="n">
         <v>0</v>
@@ -8866,13 +8866,13 @@
         <v>0</v>
       </c>
       <c r="AB73" t="n">
-        <v>3.38836091</v>
+        <v>2.889913278</v>
       </c>
       <c r="AC73" t="n">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="AD73" t="n">
-        <v>38684</v>
+        <v>45355</v>
       </c>
       <c r="AE73" t="n">
         <v>0</v>
@@ -8939,19 +8939,19 @@
         <v>36</v>
       </c>
       <c r="N74" t="n">
-        <v>0.391589683</v>
+        <v>0.049387613</v>
       </c>
       <c r="O74" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P74" t="n">
-        <v>0.005591151</v>
+        <v>0.00545601</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R74" t="n">
-        <v>1.405166464</v>
+        <v>1.25249956</v>
       </c>
       <c r="S74" t="n">
         <v>1.542254452</v>
@@ -8960,13 +8960,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U74" t="n">
-        <v>0.005806772</v>
+        <v>0.002363255</v>
       </c>
       <c r="V74" t="n">
-        <v>3.350973182</v>
+        <v>2.85252555</v>
       </c>
       <c r="W74" t="n">
-        <v>0.00783535</v>
+        <v>0.0079065475</v>
       </c>
       <c r="X74" t="n">
         <v>0</v>
@@ -8978,16 +8978,16 @@
         <v>0</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.2747501</v>
+        <v>0.25936346</v>
       </c>
       <c r="AB74" t="n">
-        <v>3.350973182</v>
+        <v>2.85252555</v>
       </c>
       <c r="AC74" t="n">
-        <v>306</v>
+        <v>359</v>
       </c>
       <c r="AD74" t="n">
-        <v>39115</v>
+        <v>45950</v>
       </c>
       <c r="AE74" t="n">
         <v>0</v>
@@ -9054,34 +9054,34 @@
         <v>18</v>
       </c>
       <c r="N75" t="n">
-        <v>0.391589683</v>
+        <v>0.049387613</v>
       </c>
       <c r="O75" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P75" t="n">
-        <v>0.005591151</v>
+        <v>0.00545601</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R75" t="n">
-        <v>1.405166464</v>
+        <v>1.25249956</v>
       </c>
       <c r="S75" t="n">
-        <v>0.839266728</v>
+        <v>0.7664585739999999</v>
       </c>
       <c r="T75" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U75" t="n">
-        <v>0.005806772</v>
+        <v>0.002363255</v>
       </c>
       <c r="V75" t="n">
-        <v>2.647985458</v>
+        <v>2.076729672</v>
       </c>
       <c r="W75" t="n">
-        <v>0.008440774999999999</v>
+        <v>0.008379850499999999</v>
       </c>
       <c r="X75" t="n">
         <v>0</v>
@@ -9093,16 +9093,16 @@
         <v>0</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.41175915</v>
+        <v>0.388313068</v>
       </c>
       <c r="AB75" t="n">
-        <v>2.647985458</v>
+        <v>2.076729672</v>
       </c>
       <c r="AC75" t="n">
-        <v>387</v>
+        <v>494</v>
       </c>
       <c r="AD75" t="n">
-        <v>49499</v>
+        <v>63115</v>
       </c>
       <c r="AE75" t="n">
         <v>0</v>
@@ -9859,19 +9859,19 @@
         <v>72</v>
       </c>
       <c r="N82" t="n">
-        <v>0.035669872</v>
+        <v>0.00621773</v>
       </c>
       <c r="O82" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P82" t="n">
-        <v>0.000723114</v>
+        <v>0.000682017</v>
       </c>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R82" t="n">
-        <v>0.175646504</v>
+        <v>0.15656288</v>
       </c>
       <c r="S82" t="n">
         <v>0.19745549</v>
@@ -9880,34 +9880,34 @@
         <v>0.383525</v>
       </c>
       <c r="U82" t="n">
-        <v>0.005038093</v>
+        <v>0.000298898</v>
       </c>
       <c r="V82" t="n">
-        <v>0.414603659</v>
+        <v>0.361287601</v>
       </c>
       <c r="W82" t="n">
-        <v>0.00666424</v>
+        <v>0.00691936475</v>
       </c>
       <c r="X82" t="n">
-        <v>0.4535894139886578</v>
+        <v>0.5763644612476371</v>
       </c>
       <c r="Y82" t="n">
         <v>0</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.00315614</v>
+        <v>0.003000834</v>
       </c>
       <c r="AA82" t="n">
-        <v>0</v>
+        <v>0.004328072</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.591567459</v>
+        <v>0.585191033</v>
       </c>
       <c r="AC82" t="n">
-        <v>1731</v>
+        <v>1750</v>
       </c>
       <c r="AD82" t="n">
-        <v>13848</v>
+        <v>13999</v>
       </c>
       <c r="AE82" t="n">
         <v>0</v>
@@ -9974,19 +9974,19 @@
         <v>36</v>
       </c>
       <c r="N83" t="n">
-        <v>0.035669872</v>
+        <v>0.00621773</v>
       </c>
       <c r="O83" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P83" t="n">
-        <v>0.000723114</v>
+        <v>0.000682017</v>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R83" t="n">
-        <v>0.175646504</v>
+        <v>0.15656288</v>
       </c>
       <c r="S83" t="n">
         <v>0.192782024</v>
@@ -9995,34 +9995,34 @@
         <v>0.1932125</v>
       </c>
       <c r="U83" t="n">
-        <v>0.005038093</v>
+        <v>0.000298898</v>
       </c>
       <c r="V83" t="n">
-        <v>0.409930193</v>
+        <v>0.356614135</v>
       </c>
       <c r="W83" t="n">
-        <v>0.003956504</v>
+        <v>0.00419059875</v>
       </c>
       <c r="X83" t="n">
-        <v>0</v>
+        <v>0.1590874296435272</v>
       </c>
       <c r="Y83" t="n">
         <v>0</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.00315614</v>
+        <v>0.003000834</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.034984354</v>
+        <v>0.038029596</v>
       </c>
       <c r="AB83" t="n">
-        <v>0.409930193</v>
+        <v>0.390205067</v>
       </c>
       <c r="AC83" t="n">
-        <v>2498</v>
+        <v>2625</v>
       </c>
       <c r="AD83" t="n">
-        <v>19984</v>
+        <v>20995</v>
       </c>
       <c r="AE83" t="n">
         <v>0</v>
@@ -10089,34 +10089,34 @@
         <v>18</v>
       </c>
       <c r="N84" t="n">
-        <v>0.035669872</v>
+        <v>0.00621773</v>
       </c>
       <c r="O84" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P84" t="n">
-        <v>0.000723114</v>
+        <v>0.000682017</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R84" t="n">
-        <v>0.175646504</v>
+        <v>0.15656288</v>
       </c>
       <c r="S84" t="n">
-        <v>0.10425355</v>
+        <v>0.09580759</v>
       </c>
       <c r="T84" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U84" t="n">
-        <v>0.005038093</v>
+        <v>0.000298898</v>
       </c>
       <c r="V84" t="n">
-        <v>0.321401719</v>
+        <v>0.259639701</v>
       </c>
       <c r="W84" t="n">
-        <v>0.002596635</v>
+        <v>0.00281421375</v>
       </c>
       <c r="X84" t="n">
         <v>0</v>
@@ -10125,19 +10125,19 @@
         <v>0</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.00315614</v>
+        <v>0.003000834</v>
       </c>
       <c r="AA84" t="n">
-        <v>0.05211047</v>
+        <v>0.054148236</v>
       </c>
       <c r="AB84" t="n">
-        <v>0.321401719</v>
+        <v>0.259639701</v>
       </c>
       <c r="AC84" t="n">
-        <v>3187</v>
+        <v>3944</v>
       </c>
       <c r="AD84" t="n">
-        <v>25489</v>
+        <v>31552</v>
       </c>
       <c r="AE84" t="n">
         <v>0</v>
@@ -10319,19 +10319,19 @@
         <v>72</v>
       </c>
       <c r="N86" t="n">
-        <v>0.042827002</v>
+        <v>0.006457643</v>
       </c>
       <c r="O86" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P86" t="n">
-        <v>0.000901764</v>
+        <v>0.000723114</v>
       </c>
       <c r="Q86" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R86" t="n">
-        <v>0.350124656</v>
+        <v>0.317409872</v>
       </c>
       <c r="S86" t="n">
         <v>0.19745549</v>
@@ -10340,16 +10340,16 @@
         <v>0.383525</v>
       </c>
       <c r="U86" t="n">
-        <v>0.005177042</v>
+        <v>0.000333743</v>
       </c>
       <c r="V86" t="n">
-        <v>0.59655654</v>
+        <v>0.522450448</v>
       </c>
       <c r="W86" t="n">
-        <v>0.0066125</v>
+        <v>0.0069359375</v>
       </c>
       <c r="X86" t="n">
-        <v>0</v>
+        <v>0.1563785255198488</v>
       </c>
       <c r="Y86" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="AB86" t="n">
-        <v>0.59655654</v>
+        <v>0.582425522</v>
       </c>
       <c r="AC86" t="n">
-        <v>1717</v>
+        <v>1759</v>
       </c>
       <c r="AD86" t="n">
-        <v>27465</v>
+        <v>28131</v>
       </c>
       <c r="AE86" t="n">
         <v>0</v>
@@ -10434,19 +10434,19 @@
         <v>36</v>
       </c>
       <c r="N87" t="n">
-        <v>0.042827002</v>
+        <v>0.006457643</v>
       </c>
       <c r="O87" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P87" t="n">
-        <v>0.000901764</v>
+        <v>0.000723114</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R87" t="n">
-        <v>0.350124656</v>
+        <v>0.317409872</v>
       </c>
       <c r="S87" t="n">
         <v>0.192782024</v>
@@ -10455,13 +10455,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U87" t="n">
-        <v>0.005177042</v>
+        <v>0.000333743</v>
       </c>
       <c r="V87" t="n">
-        <v>0.591883074</v>
+        <v>0.517776982</v>
       </c>
       <c r="W87" t="n">
-        <v>0.003904764</v>
+        <v>0.0042071715</v>
       </c>
       <c r="X87" t="n">
         <v>0</v>
@@ -10473,16 +10473,16 @@
         <v>0</v>
       </c>
       <c r="AA87" t="n">
-        <v>0.034984354</v>
+        <v>0.033701524</v>
       </c>
       <c r="AB87" t="n">
-        <v>0.591883074</v>
+        <v>0.517776982</v>
       </c>
       <c r="AC87" t="n">
-        <v>1731</v>
+        <v>1978</v>
       </c>
       <c r="AD87" t="n">
-        <v>27682</v>
+        <v>31643</v>
       </c>
       <c r="AE87" t="n">
         <v>0</v>
@@ -10549,34 +10549,34 @@
         <v>18</v>
       </c>
       <c r="N88" t="n">
-        <v>0.042827002</v>
+        <v>0.006457643</v>
       </c>
       <c r="O88" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P88" t="n">
-        <v>0.000901764</v>
+        <v>0.000723114</v>
       </c>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R88" t="n">
-        <v>0.350124656</v>
+        <v>0.317409872</v>
       </c>
       <c r="S88" t="n">
-        <v>0.10425355</v>
+        <v>0.09580759</v>
       </c>
       <c r="T88" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U88" t="n">
-        <v>0.005177042</v>
+        <v>0.000333743</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5033546</v>
+        <v>0.420802548</v>
       </c>
       <c r="W88" t="n">
-        <v>0.002544895</v>
+        <v>0.0028307865</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
@@ -10588,16 +10588,16 @@
         <v>0</v>
       </c>
       <c r="AA88" t="n">
-        <v>0.05211047</v>
+        <v>0.049820164</v>
       </c>
       <c r="AB88" t="n">
-        <v>0.5033546</v>
+        <v>0.420802548</v>
       </c>
       <c r="AC88" t="n">
-        <v>2035</v>
+        <v>2434</v>
       </c>
       <c r="AD88" t="n">
-        <v>32550</v>
+        <v>38936</v>
       </c>
       <c r="AE88" t="n">
         <v>0</v>
@@ -10664,34 +10664,34 @@
         <v>9</v>
       </c>
       <c r="N89" t="n">
-        <v>0.042827002</v>
+        <v>0.006457643</v>
       </c>
       <c r="O89" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P89" t="n">
-        <v>0.000901764</v>
+        <v>0.000723114</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R89" t="n">
-        <v>0.350124656</v>
+        <v>0.317409872</v>
       </c>
       <c r="S89" t="n">
-        <v>0.177094706</v>
+        <v>0.12736655</v>
       </c>
       <c r="T89" t="n">
         <v>0.050478125</v>
       </c>
       <c r="U89" t="n">
-        <v>0.005177042</v>
+        <v>0.000333743</v>
       </c>
       <c r="V89" t="n">
-        <v>0.5761957559999999</v>
+        <v>0.452361508</v>
       </c>
       <c r="W89" t="n">
-        <v>0.0018649605</v>
+        <v>0.002142596</v>
       </c>
       <c r="X89" t="n">
         <v>0</v>
@@ -10703,16 +10703,16 @@
         <v>0</v>
       </c>
       <c r="AA89" t="n">
-        <v>0.060673528</v>
+        <v>0.057879606</v>
       </c>
       <c r="AB89" t="n">
-        <v>0.5761957559999999</v>
+        <v>0.452361508</v>
       </c>
       <c r="AC89" t="n">
-        <v>1778</v>
+        <v>2264</v>
       </c>
       <c r="AD89" t="n">
-        <v>28435</v>
+        <v>36219</v>
       </c>
       <c r="AE89" t="n">
         <v>0</v>
@@ -11469,19 +11469,19 @@
         <v>72</v>
       </c>
       <c r="N96" t="n">
-        <v>0.5627659310000001</v>
+        <v>0.098212867</v>
       </c>
       <c r="O96" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P96" t="n">
-        <v>0.011182293</v>
+        <v>0.010909605</v>
       </c>
       <c r="Q96" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R96" t="n">
-        <v>2.810332232</v>
+        <v>2.502272888</v>
       </c>
       <c r="S96" t="n">
         <v>3.15928436</v>
@@ -11490,13 +11490,13 @@
         <v>0.383525</v>
       </c>
       <c r="U96" t="n">
-        <v>0.006778173</v>
+        <v>0.004780488</v>
       </c>
       <c r="V96" t="n">
-        <v>6.551472305</v>
+        <v>5.776589524</v>
       </c>
       <c r="W96" t="n">
-        <v>0.006900294</v>
+        <v>0.008000242750000001</v>
       </c>
       <c r="X96" t="n">
         <v>0</v>
@@ -11505,19 +11505,19 @@
         <v>0</v>
       </c>
       <c r="Z96" t="n">
-        <v>0.017555434</v>
+        <v>0.01505663</v>
       </c>
       <c r="AA96" t="n">
-        <v>0</v>
+        <v>0.058205834</v>
       </c>
       <c r="AB96" t="n">
-        <v>6.551472305</v>
+        <v>5.776589524</v>
       </c>
       <c r="AC96" t="n">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="AD96" t="n">
-        <v>20007</v>
+        <v>22691</v>
       </c>
       <c r="AE96" t="n">
         <v>0</v>
@@ -11584,19 +11584,19 @@
         <v>36</v>
       </c>
       <c r="N97" t="n">
-        <v>0.5627659310000001</v>
+        <v>0.098212867</v>
       </c>
       <c r="O97" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P97" t="n">
-        <v>0.011182293</v>
+        <v>0.010909605</v>
       </c>
       <c r="Q97" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R97" t="n">
-        <v>2.810332232</v>
+        <v>2.502272888</v>
       </c>
       <c r="S97" t="n">
         <v>3.084508846</v>
@@ -11605,13 +11605,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U97" t="n">
-        <v>0.006778173</v>
+        <v>0.004780488</v>
       </c>
       <c r="V97" t="n">
-        <v>6.476696791</v>
+        <v>5.70181401</v>
       </c>
       <c r="W97" t="n">
-        <v>0.012615244</v>
+        <v>0.01319871075</v>
       </c>
       <c r="X97" t="n">
         <v>0</v>
@@ -11620,19 +11620,19 @@
         <v>0</v>
       </c>
       <c r="Z97" t="n">
-        <v>0.017555434</v>
+        <v>0.01505663</v>
       </c>
       <c r="AA97" t="n">
-        <v>0.5487682</v>
+        <v>0.575468632</v>
       </c>
       <c r="AB97" t="n">
-        <v>6.476696791</v>
+        <v>5.70181401</v>
       </c>
       <c r="AC97" t="n">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="AD97" t="n">
-        <v>20238</v>
+        <v>22988</v>
       </c>
       <c r="AE97" t="n">
         <v>0</v>
@@ -11929,19 +11929,19 @@
         <v>72</v>
       </c>
       <c r="N100" t="n">
-        <v>0.797820403</v>
+        <v>0.09823684000000001</v>
       </c>
       <c r="O100" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P100" t="n">
-        <v>0.011182293</v>
+        <v>0.01091202</v>
       </c>
       <c r="Q100" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R100" t="n">
-        <v>2.810332232</v>
+        <v>2.50499912</v>
       </c>
       <c r="S100" t="n">
         <v>3.15928436</v>
@@ -11950,13 +11950,13 @@
         <v>0.383525</v>
       </c>
       <c r="U100" t="n">
-        <v>0.006715502</v>
+        <v>0.004726508</v>
       </c>
       <c r="V100" t="n">
-        <v>6.786464106</v>
+        <v>5.779288164</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0066125</v>
+        <v>0.0069359375</v>
       </c>
       <c r="X100" t="n">
         <v>0</v>
@@ -11971,13 +11971,13 @@
         <v>0</v>
       </c>
       <c r="AB100" t="n">
-        <v>6.786464106</v>
+        <v>5.779288164</v>
       </c>
       <c r="AC100" t="n">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="AD100" t="n">
-        <v>38628</v>
+        <v>45360</v>
       </c>
       <c r="AE100" t="n">
         <v>0</v>
@@ -12044,19 +12044,19 @@
         <v>36</v>
       </c>
       <c r="N101" t="n">
-        <v>0.797820403</v>
+        <v>0.09823684000000001</v>
       </c>
       <c r="O101" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P101" t="n">
-        <v>0.011182293</v>
+        <v>0.01091202</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R101" t="n">
-        <v>2.810332232</v>
+        <v>2.50499912</v>
       </c>
       <c r="S101" t="n">
         <v>3.084508846</v>
@@ -12065,13 +12065,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U101" t="n">
-        <v>0.006715502</v>
+        <v>0.004726508</v>
       </c>
       <c r="V101" t="n">
-        <v>6.711688592</v>
+        <v>5.70451265</v>
       </c>
       <c r="W101" t="n">
-        <v>0.01232745</v>
+        <v>0.0121344055</v>
       </c>
       <c r="X101" t="n">
         <v>0</v>
@@ -12083,16 +12083,16 @@
         <v>0</v>
       </c>
       <c r="AA101" t="n">
-        <v>0.5487682</v>
+        <v>0.517262798</v>
       </c>
       <c r="AB101" t="n">
-        <v>6.711688592</v>
+        <v>5.70451265</v>
       </c>
       <c r="AC101" t="n">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="AD101" t="n">
-        <v>39058</v>
+        <v>45954</v>
       </c>
       <c r="AE101" t="n">
         <v>0</v>
@@ -12159,34 +12159,34 @@
         <v>18</v>
       </c>
       <c r="N102" t="n">
-        <v>0.797820403</v>
+        <v>0.09823684000000001</v>
       </c>
       <c r="O102" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P102" t="n">
-        <v>0.011182293</v>
+        <v>0.01091202</v>
       </c>
       <c r="Q102" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R102" t="n">
-        <v>2.810332232</v>
+        <v>2.50499912</v>
       </c>
       <c r="S102" t="n">
-        <v>1.679282062</v>
+        <v>1.53291709</v>
       </c>
       <c r="T102" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U102" t="n">
-        <v>0.006715502</v>
+        <v>0.004726508</v>
       </c>
       <c r="V102" t="n">
-        <v>5.306461808</v>
+        <v>4.152920894</v>
       </c>
       <c r="W102" t="n">
-        <v>0.015178925</v>
+        <v>0.0147216385</v>
       </c>
       <c r="X102" t="n">
         <v>0</v>
@@ -12198,16 +12198,16 @@
         <v>0</v>
       </c>
       <c r="AA102" t="n">
-        <v>0.8227863</v>
+        <v>0.7751621359999999</v>
       </c>
       <c r="AB102" t="n">
-        <v>5.306461808</v>
+        <v>4.152920894</v>
       </c>
       <c r="AC102" t="n">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="AD102" t="n">
-        <v>49401</v>
+        <v>63123</v>
       </c>
       <c r="AE102" t="n">
         <v>0</v>
@@ -12964,19 +12964,19 @@
         <v>72</v>
       </c>
       <c r="N109" t="n">
-        <v>0.064526532</v>
+        <v>0.012390259</v>
       </c>
       <c r="O109" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P109" t="n">
-        <v>0.001397799</v>
+        <v>0.001364016</v>
       </c>
       <c r="Q109" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R109" t="n">
-        <v>0.35129208</v>
+        <v>0.313125528</v>
       </c>
       <c r="S109" t="n">
         <v>0.394910748</v>
@@ -12985,34 +12985,34 @@
         <v>0.383525</v>
       </c>
       <c r="U109" t="n">
-        <v>0.005133058</v>
+        <v>0.000597794</v>
       </c>
       <c r="V109" t="n">
-        <v>0.817401383</v>
+        <v>0.722529511</v>
       </c>
       <c r="W109" t="n">
-        <v>0.006679976</v>
+        <v>0.00699150875</v>
       </c>
       <c r="X109" t="n">
-        <v>0</v>
+        <v>0.1528415879017013</v>
       </c>
       <c r="Y109" t="n">
         <v>0</v>
       </c>
       <c r="Z109" t="n">
-        <v>0.004116036</v>
+        <v>0.003805546</v>
       </c>
       <c r="AA109" t="n">
-        <v>0</v>
+        <v>0.007924143999999999</v>
       </c>
       <c r="AB109" t="n">
-        <v>0.817401383</v>
+        <v>0.784766469</v>
       </c>
       <c r="AC109" t="n">
-        <v>1253</v>
+        <v>1305</v>
       </c>
       <c r="AD109" t="n">
-        <v>20045</v>
+        <v>20878</v>
       </c>
       <c r="AE109" t="n">
         <v>0</v>
@@ -13079,19 +13079,19 @@
         <v>36</v>
       </c>
       <c r="N110" t="n">
-        <v>0.064526532</v>
+        <v>0.012390259</v>
       </c>
       <c r="O110" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P110" t="n">
-        <v>0.001397799</v>
+        <v>0.001364016</v>
       </c>
       <c r="Q110" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R110" t="n">
-        <v>0.35129208</v>
+        <v>0.313125528</v>
       </c>
       <c r="S110" t="n">
         <v>0.385563816</v>
@@ -13100,13 +13100,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U110" t="n">
-        <v>0.005133058</v>
+        <v>0.000597794</v>
       </c>
       <c r="V110" t="n">
-        <v>0.808054451</v>
+        <v>0.713182579</v>
       </c>
       <c r="W110" t="n">
-        <v>0.004533752</v>
+        <v>0.00479122475</v>
       </c>
       <c r="X110" t="n">
         <v>0</v>
@@ -13115,19 +13115,19 @@
         <v>0</v>
       </c>
       <c r="Z110" t="n">
-        <v>0.004116036</v>
+        <v>0.003805546</v>
       </c>
       <c r="AA110" t="n">
-        <v>0.069236586</v>
+        <v>0.07386307</v>
       </c>
       <c r="AB110" t="n">
-        <v>0.808054451</v>
+        <v>0.713182579</v>
       </c>
       <c r="AC110" t="n">
-        <v>1268</v>
+        <v>1436</v>
       </c>
       <c r="AD110" t="n">
-        <v>20276</v>
+        <v>22974</v>
       </c>
       <c r="AE110" t="n">
         <v>0</v>
@@ -13424,19 +13424,19 @@
         <v>72</v>
       </c>
       <c r="N113" t="n">
-        <v>0.08701790299999999</v>
+        <v>0.012390259</v>
       </c>
       <c r="O113" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P113" t="n">
-        <v>0.001446216</v>
+        <v>0.001364016</v>
       </c>
       <c r="Q113" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R113" t="n">
-        <v>0.35129208</v>
+        <v>0.313125528</v>
       </c>
       <c r="S113" t="n">
         <v>0.394910748</v>
@@ -13445,16 +13445,16 @@
         <v>0.383525</v>
       </c>
       <c r="U113" t="n">
-        <v>0.005177042</v>
+        <v>0.000590817</v>
       </c>
       <c r="V113" t="n">
-        <v>0.839985155</v>
+        <v>0.722522534</v>
       </c>
       <c r="W113" t="n">
-        <v>0.0066125</v>
+        <v>0.0069359375</v>
       </c>
       <c r="X113" t="n">
-        <v>0</v>
+        <v>0.1528415879017013</v>
       </c>
       <c r="Y113" t="n">
         <v>0</v>
@@ -13466,13 +13466,13 @@
         <v>0</v>
       </c>
       <c r="AB113" t="n">
-        <v>0.839985155</v>
+        <v>0.781141104</v>
       </c>
       <c r="AC113" t="n">
-        <v>1220</v>
+        <v>1311</v>
       </c>
       <c r="AD113" t="n">
-        <v>39011</v>
+        <v>41949</v>
       </c>
       <c r="AE113" t="n">
         <v>0</v>
@@ -13539,19 +13539,19 @@
         <v>36</v>
       </c>
       <c r="N114" t="n">
-        <v>0.08701790299999999</v>
+        <v>0.012390259</v>
       </c>
       <c r="O114" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P114" t="n">
-        <v>0.001446216</v>
+        <v>0.001364016</v>
       </c>
       <c r="Q114" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R114" t="n">
-        <v>0.35129208</v>
+        <v>0.313125528</v>
       </c>
       <c r="S114" t="n">
         <v>0.385563816</v>
@@ -13560,13 +13560,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U114" t="n">
-        <v>0.005177042</v>
+        <v>0.000590817</v>
       </c>
       <c r="V114" t="n">
-        <v>0.830638223</v>
+        <v>0.713175602</v>
       </c>
       <c r="W114" t="n">
-        <v>0.004466276</v>
+        <v>0.0047356535</v>
       </c>
       <c r="X114" t="n">
         <v>0</v>
@@ -13578,16 +13578,16 @@
         <v>0</v>
       </c>
       <c r="AA114" t="n">
-        <v>0.069236586</v>
+        <v>0.06593892599999999</v>
       </c>
       <c r="AB114" t="n">
-        <v>0.830638223</v>
+        <v>0.713175602</v>
       </c>
       <c r="AC114" t="n">
-        <v>1233</v>
+        <v>1436</v>
       </c>
       <c r="AD114" t="n">
-        <v>39450</v>
+        <v>45947</v>
       </c>
       <c r="AE114" t="n">
         <v>0</v>
@@ -13654,34 +13654,34 @@
         <v>18</v>
       </c>
       <c r="N115" t="n">
-        <v>0.08701790299999999</v>
+        <v>0.012390259</v>
       </c>
       <c r="O115" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P115" t="n">
-        <v>0.001446216</v>
+        <v>0.001364016</v>
       </c>
       <c r="Q115" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R115" t="n">
-        <v>0.35129208</v>
+        <v>0.313125528</v>
       </c>
       <c r="S115" t="n">
-        <v>0.209255358</v>
+        <v>0.191614832</v>
       </c>
       <c r="T115" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U115" t="n">
-        <v>0.005177042</v>
+        <v>0.000590817</v>
       </c>
       <c r="V115" t="n">
-        <v>0.654329765</v>
+        <v>0.519226618</v>
       </c>
       <c r="W115" t="n">
-        <v>0.003387163</v>
+        <v>0.0036235105</v>
       </c>
       <c r="X115" t="n">
         <v>0</v>
@@ -13693,16 +13693,16 @@
         <v>0</v>
       </c>
       <c r="AA115" t="n">
-        <v>0.103488818</v>
+        <v>0.09817632799999999</v>
       </c>
       <c r="AB115" t="n">
-        <v>0.654329765</v>
+        <v>0.519226618</v>
       </c>
       <c r="AC115" t="n">
-        <v>1565</v>
+        <v>1973</v>
       </c>
       <c r="AD115" t="n">
-        <v>50079</v>
+        <v>63110</v>
       </c>
       <c r="AE115" t="n">
         <v>0</v>
@@ -13769,34 +13769,34 @@
         <v>9</v>
       </c>
       <c r="N116" t="n">
-        <v>0.08701790299999999</v>
+        <v>0.012390259</v>
       </c>
       <c r="O116" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P116" t="n">
-        <v>0.001446216</v>
+        <v>0.001364016</v>
       </c>
       <c r="Q116" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R116" t="n">
-        <v>0.35129208</v>
+        <v>0.313125528</v>
       </c>
       <c r="S116" t="n">
-        <v>0.356724534</v>
+        <v>0.257316072</v>
       </c>
       <c r="T116" t="n">
         <v>0.050478125</v>
       </c>
       <c r="U116" t="n">
-        <v>0.005177042</v>
+        <v>0.000590817</v>
       </c>
       <c r="V116" t="n">
-        <v>0.801798941</v>
+        <v>0.584927858</v>
       </c>
       <c r="W116" t="n">
-        <v>0.0028476065</v>
+        <v>0.00306744</v>
       </c>
       <c r="X116" t="n">
         <v>0</v>
@@ -13808,16 +13808,16 @@
         <v>0</v>
       </c>
       <c r="AA116" t="n">
-        <v>0.120614934</v>
+        <v>0.11429509</v>
       </c>
       <c r="AB116" t="n">
-        <v>0.801798941</v>
+        <v>0.584927858</v>
       </c>
       <c r="AC116" t="n">
-        <v>1278</v>
+        <v>1751</v>
       </c>
       <c r="AD116" t="n">
-        <v>40869</v>
+        <v>56021</v>
       </c>
       <c r="AE116" t="n">
         <v>0</v>
@@ -14574,19 +14574,19 @@
         <v>72</v>
       </c>
       <c r="N123" t="n">
-        <v>0.845912925</v>
+        <v>0.149776533</v>
       </c>
       <c r="O123" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P123" t="n">
-        <v>0.016773423</v>
+        <v>0.016363191</v>
       </c>
       <c r="Q123" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R123" t="n">
-        <v>4.215498</v>
+        <v>3.75204552</v>
       </c>
       <c r="S123" t="n">
         <v>4.738926366</v>
@@ -14595,13 +14595,13 @@
         <v>0.383525</v>
       </c>
       <c r="U123" t="n">
-        <v>0.012616278</v>
+        <v>0.008441422000000001</v>
       </c>
       <c r="V123" t="n">
-        <v>9.831420968</v>
+        <v>8.667247008</v>
       </c>
       <c r="W123" t="n">
-        <v>0.007026188</v>
+        <v>0.00857611675</v>
       </c>
       <c r="X123" t="n">
         <v>0</v>
@@ -14610,19 +14610,19 @@
         <v>0</v>
       </c>
       <c r="Z123" t="n">
-        <v>0.025234968</v>
+        <v>0.021479686</v>
       </c>
       <c r="AA123" t="n">
-        <v>0</v>
+        <v>0.086911092</v>
       </c>
       <c r="AB123" t="n">
-        <v>9.831420968</v>
+        <v>8.667247008</v>
       </c>
       <c r="AC123" t="n">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="AD123" t="n">
-        <v>19998</v>
+        <v>22685</v>
       </c>
       <c r="AE123" t="n">
         <v>0</v>
@@ -15034,19 +15034,19 @@
         <v>72</v>
       </c>
       <c r="N127" t="n">
-        <v>1.204081562</v>
+        <v>0.149776533</v>
       </c>
       <c r="O127" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P127" t="n">
-        <v>0.016773423</v>
+        <v>0.016363191</v>
       </c>
       <c r="Q127" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R127" t="n">
-        <v>4.215498</v>
+        <v>3.75204552</v>
       </c>
       <c r="S127" t="n">
         <v>4.738926366</v>
@@ -15055,13 +15055,13 @@
         <v>0.383525</v>
       </c>
       <c r="U127" t="n">
-        <v>0.012522272</v>
+        <v>0.00835782</v>
       </c>
       <c r="V127" t="n">
-        <v>10.189495599</v>
+        <v>8.667163406</v>
       </c>
       <c r="W127" t="n">
-        <v>0.0066125</v>
+        <v>0.0069359375</v>
       </c>
       <c r="X127" t="n">
         <v>0</v>
@@ -15076,13 +15076,13 @@
         <v>0</v>
       </c>
       <c r="AB127" t="n">
-        <v>10.189495599</v>
+        <v>8.667163406</v>
       </c>
       <c r="AC127" t="n">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AD127" t="n">
-        <v>38591</v>
+        <v>45369</v>
       </c>
       <c r="AE127" t="n">
         <v>0</v>
@@ -15149,19 +15149,19 @@
         <v>36</v>
       </c>
       <c r="N128" t="n">
-        <v>1.204081562</v>
+        <v>0.149776533</v>
       </c>
       <c r="O128" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P128" t="n">
-        <v>0.016773423</v>
+        <v>0.016363191</v>
       </c>
       <c r="Q128" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R128" t="n">
-        <v>4.215498</v>
+        <v>3.75204552</v>
       </c>
       <c r="S128" t="n">
         <v>4.626763124</v>
@@ -15170,13 +15170,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U128" t="n">
-        <v>0.012522272</v>
+        <v>0.00835782</v>
       </c>
       <c r="V128" t="n">
-        <v>10.077332357</v>
+        <v>8.555000164000001</v>
       </c>
       <c r="W128" t="n">
-        <v>0.01681955</v>
+        <v>0.0163622635</v>
       </c>
       <c r="X128" t="n">
         <v>0</v>
@@ -15188,16 +15188,16 @@
         <v>0</v>
       </c>
       <c r="AA128" t="n">
-        <v>0.8227863</v>
+        <v>0.7751621359999999</v>
       </c>
       <c r="AB128" t="n">
-        <v>10.077332357</v>
+        <v>8.555000164000001</v>
       </c>
       <c r="AC128" t="n">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AD128" t="n">
-        <v>39020</v>
+        <v>45964</v>
       </c>
       <c r="AE128" t="n">
         <v>0</v>
@@ -15264,34 +15264,34 @@
         <v>18</v>
       </c>
       <c r="N129" t="n">
-        <v>1.204081562</v>
+        <v>0.149776533</v>
       </c>
       <c r="O129" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P129" t="n">
-        <v>0.016773423</v>
+        <v>0.016363191</v>
       </c>
       <c r="Q129" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R129" t="n">
-        <v>4.215498</v>
+        <v>3.75204552</v>
       </c>
       <c r="S129" t="n">
-        <v>2.519297396</v>
+        <v>2.299375664</v>
       </c>
       <c r="T129" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U129" t="n">
-        <v>0.012522272</v>
+        <v>0.00835782</v>
       </c>
       <c r="V129" t="n">
-        <v>7.969866629</v>
+        <v>6.227612704</v>
       </c>
       <c r="W129" t="n">
-        <v>0.021917075</v>
+        <v>0.0210634265</v>
       </c>
       <c r="X129" t="n">
         <v>0</v>
@@ -15303,16 +15303,16 @@
         <v>0</v>
       </c>
       <c r="AA129" t="n">
-        <v>1.23381345</v>
+        <v>1.162011204</v>
       </c>
       <c r="AB129" t="n">
-        <v>7.969866629</v>
+        <v>6.227612704</v>
       </c>
       <c r="AC129" t="n">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="AD129" t="n">
-        <v>49338</v>
+        <v>63141</v>
       </c>
       <c r="AE129" t="n">
         <v>0</v>
@@ -15379,34 +15379,34 @@
         <v>9</v>
       </c>
       <c r="N130" t="n">
-        <v>1.204081562</v>
+        <v>0.149776533</v>
       </c>
       <c r="O130" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P130" t="n">
-        <v>0.016773423</v>
+        <v>0.016363191</v>
       </c>
       <c r="Q130" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R130" t="n">
-        <v>4.215498</v>
+        <v>3.75204552</v>
       </c>
       <c r="S130" t="n">
-        <v>4.308583882</v>
+        <v>27.956721056</v>
       </c>
       <c r="T130" t="n">
         <v>0.050478125</v>
       </c>
       <c r="U130" t="n">
-        <v>0.012522272</v>
+        <v>0.00835782</v>
       </c>
       <c r="V130" t="n">
-        <v>9.759153115</v>
+        <v>31.884958096</v>
       </c>
       <c r="W130" t="n">
-        <v>0.0244658365</v>
+        <v>0.023414008</v>
       </c>
       <c r="X130" t="n">
         <v>0</v>
@@ -15418,16 +15418,16 @@
         <v>0</v>
       </c>
       <c r="AA130" t="n">
-        <v>1.439326964</v>
+        <v>1.355435738</v>
       </c>
       <c r="AB130" t="n">
-        <v>9.759153115</v>
+        <v>31.884958096</v>
       </c>
       <c r="AC130" t="n">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="AD130" t="n">
-        <v>40293</v>
+        <v>12333</v>
       </c>
       <c r="AE130" t="n">
         <v>0</v>
@@ -16069,19 +16069,19 @@
         <v>72</v>
       </c>
       <c r="N136" t="n">
-        <v>1.140265741</v>
+        <v>0.196401517</v>
       </c>
       <c r="O136" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P136" t="n">
-        <v>0.022364565</v>
+        <v>0.021816786</v>
       </c>
       <c r="Q136" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R136" t="n">
-        <v>5.620663768</v>
+        <v>5.001818848</v>
       </c>
       <c r="S136" t="n">
         <v>6.318568546</v>
@@ -16090,13 +16090,13 @@
         <v>0.383525</v>
       </c>
       <c r="U136" t="n">
-        <v>0.013556344</v>
+        <v>0.009559140000000001</v>
       </c>
       <c r="V136" t="n">
-        <v>13.117677594</v>
+        <v>11.550423467</v>
       </c>
       <c r="W136" t="n">
-        <v>0.007152082</v>
+        <v>0.00915199675</v>
       </c>
       <c r="X136" t="n">
         <v>0</v>
@@ -16105,19 +16105,19 @@
         <v>0</v>
       </c>
       <c r="Z136" t="n">
-        <v>0.032914502</v>
+        <v>0.027902986</v>
       </c>
       <c r="AA136" t="n">
-        <v>0</v>
+        <v>0.115616472</v>
       </c>
       <c r="AB136" t="n">
-        <v>13.117677594</v>
+        <v>11.550423467</v>
       </c>
       <c r="AC136" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AD136" t="n">
-        <v>19985</v>
+        <v>22696</v>
       </c>
       <c r="AE136" t="n">
         <v>0</v>
@@ -16529,19 +16529,19 @@
         <v>72</v>
       </c>
       <c r="N140" t="n">
-        <v>1.609588578</v>
+        <v>0.196425551</v>
       </c>
       <c r="O140" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P140" t="n">
-        <v>0.022364565</v>
+        <v>0.021819198</v>
       </c>
       <c r="Q140" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R140" t="n">
-        <v>5.620663768</v>
+        <v>5.00454508</v>
       </c>
       <c r="S140" t="n">
         <v>6.318568546</v>
@@ -16550,13 +16550,13 @@
         <v>0.383525</v>
       </c>
       <c r="U140" t="n">
-        <v>0.013431002</v>
+        <v>0.009449466</v>
       </c>
       <c r="V140" t="n">
-        <v>13.586875089</v>
+        <v>11.553066471</v>
       </c>
       <c r="W140" t="n">
-        <v>0.0066125</v>
+        <v>0.0069359375</v>
       </c>
       <c r="X140" t="n">
         <v>0</v>
@@ -16571,13 +16571,13 @@
         <v>0</v>
       </c>
       <c r="AB140" t="n">
-        <v>13.586875089</v>
+        <v>11.553066471</v>
       </c>
       <c r="AC140" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AD140" t="n">
-        <v>38588</v>
+        <v>45381</v>
       </c>
       <c r="AE140" t="n">
         <v>0</v>
@@ -16644,19 +16644,19 @@
         <v>36</v>
       </c>
       <c r="N141" t="n">
-        <v>1.609588578</v>
+        <v>0.196425551</v>
       </c>
       <c r="O141" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P141" t="n">
-        <v>0.022364565</v>
+        <v>0.021819198</v>
       </c>
       <c r="Q141" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R141" t="n">
-        <v>5.620663768</v>
+        <v>5.00454508</v>
       </c>
       <c r="S141" t="n">
         <v>6.169017518</v>
@@ -16665,13 +16665,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U141" t="n">
-        <v>0.013431002</v>
+        <v>0.009449466</v>
       </c>
       <c r="V141" t="n">
-        <v>13.437324061</v>
+        <v>11.403515443</v>
       </c>
       <c r="W141" t="n">
-        <v>0.02131165</v>
+        <v>0.0205901215</v>
       </c>
       <c r="X141" t="n">
         <v>0</v>
@@ -16683,16 +16683,16 @@
         <v>0</v>
       </c>
       <c r="AA141" t="n">
-        <v>1.0968044</v>
+        <v>1.033061474</v>
       </c>
       <c r="AB141" t="n">
-        <v>13.437324061</v>
+        <v>11.403515443</v>
       </c>
       <c r="AC141" t="n">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AD141" t="n">
-        <v>39018</v>
+        <v>45976</v>
       </c>
       <c r="AE141" t="n">
         <v>0</v>
@@ -16759,34 +16759,34 @@
         <v>18</v>
       </c>
       <c r="N142" t="n">
-        <v>1.609588578</v>
+        <v>0.196425551</v>
       </c>
       <c r="O142" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P142" t="n">
-        <v>0.022364565</v>
+        <v>0.021819198</v>
       </c>
       <c r="Q142" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R142" t="n">
-        <v>5.620663768</v>
+        <v>5.00454508</v>
       </c>
       <c r="S142" t="n">
-        <v>3.35931273</v>
+        <v>3.06583418</v>
       </c>
       <c r="T142" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U142" t="n">
-        <v>0.013431002</v>
+        <v>0.009449466</v>
       </c>
       <c r="V142" t="n">
-        <v>10.627619273</v>
+        <v>8.300332105000001</v>
       </c>
       <c r="W142" t="n">
-        <v>0.028655223</v>
+        <v>0.0274052145</v>
       </c>
       <c r="X142" t="n">
         <v>0</v>
@@ -16798,16 +16798,16 @@
         <v>0</v>
       </c>
       <c r="AA142" t="n">
-        <v>1.644840478</v>
+        <v>1.548860272</v>
       </c>
       <c r="AB142" t="n">
-        <v>10.627619273</v>
+        <v>8.300332105000001</v>
       </c>
       <c r="AC142" t="n">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="AD142" t="n">
-        <v>49333</v>
+        <v>63165</v>
       </c>
       <c r="AE142" t="n">
         <v>0</v>
@@ -16874,34 +16874,34 @@
         <v>9</v>
       </c>
       <c r="N143" t="n">
-        <v>1.609588578</v>
+        <v>0.196425551</v>
       </c>
       <c r="O143" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P143" t="n">
-        <v>0.022364565</v>
+        <v>0.021819198</v>
       </c>
       <c r="Q143" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R143" t="n">
-        <v>5.620663768</v>
+        <v>5.00454508</v>
       </c>
       <c r="S143" t="n">
-        <v>13.236869388</v>
+        <v>58.773585904</v>
       </c>
       <c r="T143" t="n">
         <v>0.050478125</v>
       </c>
       <c r="U143" t="n">
-        <v>0.013431002</v>
+        <v>0.009449466</v>
       </c>
       <c r="V143" t="n">
-        <v>20.505175931</v>
+        <v>64.008083829</v>
       </c>
       <c r="W143" t="n">
-        <v>0.0323270105</v>
+        <v>0.03081276</v>
       </c>
       <c r="X143" t="n">
         <v>0</v>
@@ -16913,16 +16913,16 @@
         <v>0</v>
       </c>
       <c r="AA143" t="n">
-        <v>1.918858578</v>
+        <v>1.80675961</v>
       </c>
       <c r="AB143" t="n">
-        <v>20.505175931</v>
+        <v>64.008083829</v>
       </c>
       <c r="AC143" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="AD143" t="n">
-        <v>25569</v>
+        <v>8191</v>
       </c>
       <c r="AE143" t="n">
         <v>0</v>
@@ -17564,19 +17564,19 @@
         <v>72</v>
       </c>
       <c r="N149" t="n">
-        <v>0.132483338</v>
+        <v>0.024727692</v>
       </c>
       <c r="O149" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P149" t="n">
-        <v>0.002795586</v>
+        <v>0.002728014</v>
       </c>
       <c r="Q149" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R149" t="n">
-        <v>0.7025832319999999</v>
+        <v>0.626250128</v>
       </c>
       <c r="S149" t="n">
         <v>0.78982109</v>
@@ -17585,13 +17585,13 @@
         <v>0.383525</v>
       </c>
       <c r="U149" t="n">
-        <v>0.005368074</v>
+        <v>0.001195584</v>
       </c>
       <c r="V149" t="n">
-        <v>1.633333652</v>
+        <v>1.44500484</v>
       </c>
       <c r="W149" t="n">
-        <v>0.00671145</v>
+        <v>0.00713579475</v>
       </c>
       <c r="X149" t="n">
         <v>0</v>
@@ -17600,19 +17600,19 @@
         <v>0</v>
       </c>
       <c r="Z149" t="n">
-        <v>0.00603595</v>
+        <v>0.005414848</v>
       </c>
       <c r="AA149" t="n">
-        <v>0</v>
+        <v>0.015116288</v>
       </c>
       <c r="AB149" t="n">
-        <v>1.633333652</v>
+        <v>1.44500484</v>
       </c>
       <c r="AC149" t="n">
-        <v>627</v>
+        <v>709</v>
       </c>
       <c r="AD149" t="n">
-        <v>20063</v>
+        <v>22677</v>
       </c>
       <c r="AE149" t="n">
         <v>0</v>
@@ -17679,19 +17679,19 @@
         <v>36</v>
       </c>
       <c r="N150" t="n">
-        <v>0.132483338</v>
+        <v>0.024727692</v>
       </c>
       <c r="O150" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P150" t="n">
-        <v>0.002795586</v>
+        <v>0.002728014</v>
       </c>
       <c r="Q150" t="n">
-        <v>0</v>
+        <v>0.0108296875</v>
       </c>
       <c r="R150" t="n">
-        <v>0.7025832319999999</v>
+        <v>0.626250128</v>
       </c>
       <c r="S150" t="n">
         <v>0.7711272260000001</v>
@@ -17700,13 +17700,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U150" t="n">
-        <v>0.005368074</v>
+        <v>0.001195584</v>
       </c>
       <c r="V150" t="n">
-        <v>1.614639788</v>
+        <v>1.426310976</v>
       </c>
       <c r="W150" t="n">
-        <v>0.00568825</v>
+        <v>0.00599247475</v>
       </c>
       <c r="X150" t="n">
         <v>0</v>
@@ -17715,19 +17715,19 @@
         <v>0</v>
       </c>
       <c r="Z150" t="n">
-        <v>0.00603595</v>
+        <v>0.005414848</v>
       </c>
       <c r="AA150" t="n">
-        <v>0.13774105</v>
+        <v>0.145530018</v>
       </c>
       <c r="AB150" t="n">
-        <v>1.614639788</v>
+        <v>1.426310976</v>
       </c>
       <c r="AC150" t="n">
-        <v>635</v>
+        <v>718</v>
       </c>
       <c r="AD150" t="n">
-        <v>20295</v>
+        <v>22974</v>
       </c>
       <c r="AE150" t="n">
         <v>0</v>
@@ -18024,19 +18024,19 @@
         <v>72</v>
       </c>
       <c r="N153" t="n">
-        <v>0.188448703</v>
+        <v>0.024727692</v>
       </c>
       <c r="O153" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P153" t="n">
-        <v>0.002795586</v>
+        <v>0.002728014</v>
       </c>
       <c r="Q153" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R153" t="n">
-        <v>0.7025832319999999</v>
+        <v>0.626250128</v>
       </c>
       <c r="S153" t="n">
         <v>0.78982109</v>
@@ -18045,13 +18045,13 @@
         <v>0.383525</v>
       </c>
       <c r="U153" t="n">
-        <v>0.005352407</v>
+        <v>0.00118163</v>
       </c>
       <c r="V153" t="n">
-        <v>1.68928335</v>
+        <v>1.444990886</v>
       </c>
       <c r="W153" t="n">
-        <v>0.0066125</v>
+        <v>0.0069359375</v>
       </c>
       <c r="X153" t="n">
         <v>0</v>
@@ -18066,13 +18066,13 @@
         <v>0</v>
       </c>
       <c r="AB153" t="n">
-        <v>1.68928335</v>
+        <v>1.444990886</v>
       </c>
       <c r="AC153" t="n">
-        <v>607</v>
+        <v>709</v>
       </c>
       <c r="AD153" t="n">
-        <v>38796</v>
+        <v>45354</v>
       </c>
       <c r="AE153" t="n">
         <v>0</v>
@@ -18139,19 +18139,19 @@
         <v>36</v>
       </c>
       <c r="N154" t="n">
-        <v>0.188448703</v>
+        <v>0.024727692</v>
       </c>
       <c r="O154" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P154" t="n">
-        <v>0.002795586</v>
+        <v>0.002728014</v>
       </c>
       <c r="Q154" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R154" t="n">
-        <v>0.7025832319999999</v>
+        <v>0.626250128</v>
       </c>
       <c r="S154" t="n">
         <v>0.7711272260000001</v>
@@ -18160,13 +18160,13 @@
         <v>0.1932125</v>
       </c>
       <c r="U154" t="n">
-        <v>0.005352407</v>
+        <v>0.00118163</v>
       </c>
       <c r="V154" t="n">
-        <v>1.670589486</v>
+        <v>1.426297022</v>
       </c>
       <c r="W154" t="n">
-        <v>0.0055893</v>
+        <v>0.0057926175</v>
       </c>
       <c r="X154" t="n">
         <v>0</v>
@@ -18178,16 +18178,16 @@
         <v>0</v>
       </c>
       <c r="AA154" t="n">
-        <v>0.13774105</v>
+        <v>0.13041373</v>
       </c>
       <c r="AB154" t="n">
-        <v>1.670589486</v>
+        <v>1.426297022</v>
       </c>
       <c r="AC154" t="n">
-        <v>613</v>
+        <v>718</v>
       </c>
       <c r="AD154" t="n">
-        <v>39230</v>
+        <v>45949</v>
       </c>
       <c r="AE154" t="n">
         <v>0</v>
@@ -18254,34 +18254,34 @@
         <v>18</v>
       </c>
       <c r="N155" t="n">
-        <v>0.188448703</v>
+        <v>0.024727692</v>
       </c>
       <c r="O155" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P155" t="n">
-        <v>0.002795586</v>
+        <v>0.002728014</v>
       </c>
       <c r="Q155" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R155" t="n">
-        <v>0.7025832319999999</v>
+        <v>0.626250128</v>
       </c>
       <c r="S155" t="n">
-        <v>0.419259148</v>
+        <v>0.383229374</v>
       </c>
       <c r="T155" t="n">
         <v>0.09805625</v>
       </c>
       <c r="U155" t="n">
-        <v>0.005352407</v>
+        <v>0.00118163</v>
       </c>
       <c r="V155" t="n">
-        <v>1.318721408</v>
+        <v>1.03839917</v>
       </c>
       <c r="W155" t="n">
-        <v>0.005071701</v>
+        <v>0.0052089565</v>
       </c>
       <c r="X155" t="n">
         <v>0</v>
@@ -18293,16 +18293,16 @@
         <v>0</v>
       </c>
       <c r="AA155" t="n">
-        <v>0.206245636</v>
+        <v>0.194888534</v>
       </c>
       <c r="AB155" t="n">
-        <v>1.318721408</v>
+        <v>1.03839917</v>
       </c>
       <c r="AC155" t="n">
-        <v>777</v>
+        <v>987</v>
       </c>
       <c r="AD155" t="n">
-        <v>49697</v>
+        <v>63113</v>
       </c>
       <c r="AE155" t="n">
         <v>0</v>
@@ -18369,34 +18369,34 @@
         <v>9</v>
       </c>
       <c r="N156" t="n">
-        <v>0.188448703</v>
+        <v>0.024727692</v>
       </c>
       <c r="O156" t="n">
-        <v>1.021046153846154e-05</v>
+        <v>9.609846153846154e-06</v>
       </c>
       <c r="P156" t="n">
-        <v>0.002795586</v>
+        <v>0.002728014</v>
       </c>
       <c r="Q156" t="n">
-        <v>0</v>
+        <v>0.018759375</v>
       </c>
       <c r="R156" t="n">
-        <v>0.7025832319999999</v>
+        <v>0.626250128</v>
       </c>
       <c r="S156" t="n">
-        <v>0.715984422</v>
+        <v>0.51721529</v>
       </c>
       <c r="T156" t="n">
         <v>0.050478125</v>
       </c>
       <c r="U156" t="n">
-        <v>0.005352407</v>
+        <v>0.00118163</v>
       </c>
       <c r="V156" t="n">
-        <v>1.615446682</v>
+        <v>1.172385086</v>
       </c>
       <c r="W156" t="n">
-        <v>0.0048129005</v>
+        <v>0.004917128</v>
       </c>
       <c r="X156" t="n">
         <v>0</v>
@@ -18408,16 +18408,16 @@
         <v>0</v>
       </c>
       <c r="AA156" t="n">
-        <v>0.240497868</v>
+        <v>0.227126058</v>
       </c>
       <c r="AB156" t="n">
-        <v>1.615446682</v>
+        <v>1.172385086</v>
       </c>
       <c r="AC156" t="n">
-        <v>634</v>
+        <v>874</v>
       </c>
       <c r="AD156" t="n">
-        <v>40569</v>
+        <v>55900</v>
       </c>
       <c r="AE156" t="n">
         <v>0</v>
